--- a/results_G2/residue_clusters.xlsx
+++ b/results_G2/residue_clusters.xlsx
@@ -15,16 +15,12 @@
     <sheet name="2520" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="2223" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="2391" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="2333" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="2247" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2372" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="2231" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="2381" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="2343" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="2334" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="2230" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="2515" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="2280" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="2247" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2231" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2381" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2343" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2230" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="2515" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6482,3840 +6478,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>residue</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mean_distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>786</v>
-      </c>
-      <c r="B2" t="n">
-        <v>789</v>
-      </c>
-      <c r="C2" t="n">
-        <v>790</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.985555768013</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>458</v>
-      </c>
-      <c r="B3" t="n">
-        <v>791</v>
-      </c>
-      <c r="C3" t="n">
-        <v>791</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.250401973724365</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B4" t="n">
-        <v>792</v>
-      </c>
-      <c r="C4" t="n">
-        <v>792</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.018673896789551</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>786</v>
-      </c>
-      <c r="B5" t="n">
-        <v>793</v>
-      </c>
-      <c r="C5" t="n">
-        <v>794</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.825257897377014</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E215"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>residue</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mean_distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>458</v>
-      </c>
-      <c r="B2" t="n">
-        <v>804</v>
-      </c>
-      <c r="C2" t="n">
-        <v>804</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.839079141616821</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>426</v>
-      </c>
-      <c r="B3" t="n">
-        <v>805</v>
-      </c>
-      <c r="C3" t="n">
-        <v>816</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.824561774730682</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>458</v>
-      </c>
-      <c r="B4" t="n">
-        <v>817</v>
-      </c>
-      <c r="C4" t="n">
-        <v>817</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.412126064300537</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>426</v>
-      </c>
-      <c r="B5" t="n">
-        <v>818</v>
-      </c>
-      <c r="C5" t="n">
-        <v>819</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.627086281776428</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>458</v>
-      </c>
-      <c r="B6" t="n">
-        <v>820</v>
-      </c>
-      <c r="C6" t="n">
-        <v>820</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.087339401245117</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B7" t="n">
-        <v>821</v>
-      </c>
-      <c r="C7" t="n">
-        <v>825</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.197362852096558</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>458</v>
-      </c>
-      <c r="B8" t="n">
-        <v>826</v>
-      </c>
-      <c r="C8" t="n">
-        <v>827</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.936657071113586</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>786</v>
-      </c>
-      <c r="B9" t="n">
-        <v>828</v>
-      </c>
-      <c r="C9" t="n">
-        <v>829</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.697478890419006</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>130</v>
-      </c>
-      <c r="B10" t="n">
-        <v>830</v>
-      </c>
-      <c r="C10" t="n">
-        <v>830</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.596420288085938</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>786</v>
-      </c>
-      <c r="B11" t="n">
-        <v>831</v>
-      </c>
-      <c r="C11" t="n">
-        <v>831</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.785341262817383</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>832</v>
-      </c>
-      <c r="C12" t="n">
-        <v>832</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.711527347564697</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>786</v>
-      </c>
-      <c r="B13" t="n">
-        <v>833</v>
-      </c>
-      <c r="C13" t="n">
-        <v>833</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.943083047866821</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B14" t="n">
-        <v>834</v>
-      </c>
-      <c r="C14" t="n">
-        <v>834</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.393420219421387</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>786</v>
-      </c>
-      <c r="B15" t="n">
-        <v>835</v>
-      </c>
-      <c r="C15" t="n">
-        <v>836</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.757628917694092</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>754</v>
-      </c>
-      <c r="B16" t="n">
-        <v>837</v>
-      </c>
-      <c r="C16" t="n">
-        <v>839</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.831985632578532</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>130</v>
-      </c>
-      <c r="B17" t="n">
-        <v>840</v>
-      </c>
-      <c r="C17" t="n">
-        <v>840</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.577355861663818</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>754</v>
-      </c>
-      <c r="B18" t="n">
-        <v>841</v>
-      </c>
-      <c r="C18" t="n">
-        <v>842</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.91956353187561</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>786</v>
-      </c>
-      <c r="B19" t="n">
-        <v>843</v>
-      </c>
-      <c r="C19" t="n">
-        <v>843</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.12516975402832</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>844</v>
-      </c>
-      <c r="C20" t="n">
-        <v>844</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.103630304336548</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>458</v>
-      </c>
-      <c r="B21" t="n">
-        <v>845</v>
-      </c>
-      <c r="C21" t="n">
-        <v>845</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.768550872802734</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>786</v>
-      </c>
-      <c r="B22" t="n">
-        <v>846</v>
-      </c>
-      <c r="C22" t="n">
-        <v>846</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.90717887878418</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B23" t="n">
-        <v>847</v>
-      </c>
-      <c r="C23" t="n">
-        <v>847</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2.687017202377319</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>458</v>
-      </c>
-      <c r="B24" t="n">
-        <v>848</v>
-      </c>
-      <c r="C24" t="n">
-        <v>848</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6.283103942871094</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>786</v>
-      </c>
-      <c r="B25" t="n">
-        <v>849</v>
-      </c>
-      <c r="C25" t="n">
-        <v>850</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.6123948097229</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>130</v>
-      </c>
-      <c r="B26" t="n">
-        <v>851</v>
-      </c>
-      <c r="C26" t="n">
-        <v>852</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.172527194023132</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>786</v>
-      </c>
-      <c r="B27" t="n">
-        <v>853</v>
-      </c>
-      <c r="C27" t="n">
-        <v>854</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.686458826065063</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>458</v>
-      </c>
-      <c r="B28" t="n">
-        <v>855</v>
-      </c>
-      <c r="C28" t="n">
-        <v>855</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.877509593963623</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B29" t="n">
-        <v>856</v>
-      </c>
-      <c r="C29" t="n">
-        <v>858</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.618229786554972</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B30" t="n">
-        <v>859</v>
-      </c>
-      <c r="C30" t="n">
-        <v>859</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.860361814498901</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B31" t="n">
-        <v>860</v>
-      </c>
-      <c r="C31" t="n">
-        <v>861</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2.549889922142029</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B32" t="n">
-        <v>862</v>
-      </c>
-      <c r="C32" t="n">
-        <v>863</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2.644837737083435</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B33" t="n">
-        <v>864</v>
-      </c>
-      <c r="C33" t="n">
-        <v>864</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2.886028289794922</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B34" t="n">
-        <v>865</v>
-      </c>
-      <c r="C34" t="n">
-        <v>865</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3.567977905273438</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>130</v>
-      </c>
-      <c r="B35" t="n">
-        <v>866</v>
-      </c>
-      <c r="C35" t="n">
-        <v>867</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.691420674324036</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>786</v>
-      </c>
-      <c r="B36" t="n">
-        <v>868</v>
-      </c>
-      <c r="C36" t="n">
-        <v>868</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5.908538341522217</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>98</v>
-      </c>
-      <c r="B37" t="n">
-        <v>869</v>
-      </c>
-      <c r="C37" t="n">
-        <v>875</v>
-      </c>
-      <c r="D37" t="n">
-        <v>7</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2.615508590425764</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>130</v>
-      </c>
-      <c r="B38" t="n">
-        <v>876</v>
-      </c>
-      <c r="C38" t="n">
-        <v>876</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2.86630916595459</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>98</v>
-      </c>
-      <c r="B39" t="n">
-        <v>877</v>
-      </c>
-      <c r="C39" t="n">
-        <v>884</v>
-      </c>
-      <c r="D39" t="n">
-        <v>8</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2.641983866691589</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>130</v>
-      </c>
-      <c r="B40" t="n">
-        <v>885</v>
-      </c>
-      <c r="C40" t="n">
-        <v>886</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>3.604543328285217</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>786</v>
-      </c>
-      <c r="B41" t="n">
-        <v>887</v>
-      </c>
-      <c r="C41" t="n">
-        <v>887</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.994417667388916</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>426</v>
-      </c>
-      <c r="B42" t="n">
-        <v>888</v>
-      </c>
-      <c r="C42" t="n">
-        <v>890</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2.681300481160482</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>458</v>
-      </c>
-      <c r="B43" t="n">
-        <v>891</v>
-      </c>
-      <c r="C43" t="n">
-        <v>891</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3.088576555252075</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>130</v>
-      </c>
-      <c r="B44" t="n">
-        <v>892</v>
-      </c>
-      <c r="C44" t="n">
-        <v>892</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5.584288120269775</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>786</v>
-      </c>
-      <c r="B45" t="n">
-        <v>893</v>
-      </c>
-      <c r="C45" t="n">
-        <v>893</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2.709563016891479</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>426</v>
-      </c>
-      <c r="B46" t="n">
-        <v>894</v>
-      </c>
-      <c r="C46" t="n">
-        <v>894</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.574467897415161</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>895</v>
-      </c>
-      <c r="C47" t="n">
-        <v>895</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4.088818550109863</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>754</v>
-      </c>
-      <c r="B48" t="n">
-        <v>896</v>
-      </c>
-      <c r="C48" t="n">
-        <v>903</v>
-      </c>
-      <c r="D48" t="n">
-        <v>8</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3.054843306541443</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>458</v>
-      </c>
-      <c r="B49" t="n">
-        <v>904</v>
-      </c>
-      <c r="C49" t="n">
-        <v>904</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6.555117607116699</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>130</v>
-      </c>
-      <c r="B50" t="n">
-        <v>905</v>
-      </c>
-      <c r="C50" t="n">
-        <v>905</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2.71704363822937</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>786</v>
-      </c>
-      <c r="B51" t="n">
-        <v>906</v>
-      </c>
-      <c r="C51" t="n">
-        <v>906</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>5.291101932525635</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>98</v>
-      </c>
-      <c r="B52" t="n">
-        <v>907</v>
-      </c>
-      <c r="C52" t="n">
-        <v>909</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3.437851270039876</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>130</v>
-      </c>
-      <c r="B53" t="n">
-        <v>910</v>
-      </c>
-      <c r="C53" t="n">
-        <v>910</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>3.211757659912109</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>98</v>
-      </c>
-      <c r="B54" t="n">
-        <v>911</v>
-      </c>
-      <c r="C54" t="n">
-        <v>914</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2.693113267421722</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>915</v>
-      </c>
-      <c r="C55" t="n">
-        <v>916</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3.896921634674072</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>458</v>
-      </c>
-      <c r="B56" t="n">
-        <v>917</v>
-      </c>
-      <c r="C56" t="n">
-        <v>917</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.941507339477539</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B57" t="n">
-        <v>918</v>
-      </c>
-      <c r="C57" t="n">
-        <v>918</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.437892913818359</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>786</v>
-      </c>
-      <c r="B58" t="n">
-        <v>919</v>
-      </c>
-      <c r="C58" t="n">
-        <v>919</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2.891976594924927</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>754</v>
-      </c>
-      <c r="B59" t="n">
-        <v>920</v>
-      </c>
-      <c r="C59" t="n">
-        <v>920</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.772083282470703</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>786</v>
-      </c>
-      <c r="B60" t="n">
-        <v>921</v>
-      </c>
-      <c r="C60" t="n">
-        <v>921</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5.018359184265137</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>426</v>
-      </c>
-      <c r="B61" t="n">
-        <v>922</v>
-      </c>
-      <c r="C61" t="n">
-        <v>922</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2.525403499603271</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B62" t="n">
-        <v>923</v>
-      </c>
-      <c r="C62" t="n">
-        <v>923</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4.947884082794189</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>130</v>
-      </c>
-      <c r="B63" t="n">
-        <v>924</v>
-      </c>
-      <c r="C63" t="n">
-        <v>924</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4.738314628601074</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>458</v>
-      </c>
-      <c r="B64" t="n">
-        <v>925</v>
-      </c>
-      <c r="C64" t="n">
-        <v>925</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>3.458163022994995</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>98</v>
-      </c>
-      <c r="B65" t="n">
-        <v>926</v>
-      </c>
-      <c r="C65" t="n">
-        <v>933</v>
-      </c>
-      <c r="D65" t="n">
-        <v>8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2.804502576589584</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>786</v>
-      </c>
-      <c r="B66" t="n">
-        <v>934</v>
-      </c>
-      <c r="C66" t="n">
-        <v>936</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4.221140543619792</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>130</v>
-      </c>
-      <c r="B67" t="n">
-        <v>937</v>
-      </c>
-      <c r="C67" t="n">
-        <v>937</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>3.776639461517334</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>458</v>
-      </c>
-      <c r="B68" t="n">
-        <v>938</v>
-      </c>
-      <c r="C68" t="n">
-        <v>938</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10.2009220123291</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>786</v>
-      </c>
-      <c r="B69" t="n">
-        <v>939</v>
-      </c>
-      <c r="C69" t="n">
-        <v>940</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" t="n">
-        <v>8.02987003326416</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>130</v>
-      </c>
-      <c r="B70" t="n">
-        <v>941</v>
-      </c>
-      <c r="C70" t="n">
-        <v>941</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>3.558153629302979</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>98</v>
-      </c>
-      <c r="B71" t="n">
-        <v>942</v>
-      </c>
-      <c r="C71" t="n">
-        <v>948</v>
-      </c>
-      <c r="D71" t="n">
-        <v>7</v>
-      </c>
-      <c r="E71" t="n">
-        <v>3.99876492364066</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>130</v>
-      </c>
-      <c r="B72" t="n">
-        <v>949</v>
-      </c>
-      <c r="C72" t="n">
-        <v>949</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4.332393169403076</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>786</v>
-      </c>
-      <c r="B73" t="n">
-        <v>950</v>
-      </c>
-      <c r="C73" t="n">
-        <v>950</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6.266888618469238</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>458</v>
-      </c>
-      <c r="B74" t="n">
-        <v>951</v>
-      </c>
-      <c r="C74" t="n">
-        <v>951</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="n">
-        <v>4.89597225189209</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>426</v>
-      </c>
-      <c r="B75" t="n">
-        <v>952</v>
-      </c>
-      <c r="C75" t="n">
-        <v>954</v>
-      </c>
-      <c r="D75" t="n">
-        <v>3</v>
-      </c>
-      <c r="E75" t="n">
-        <v>4.486414591471354</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>458</v>
-      </c>
-      <c r="B76" t="n">
-        <v>955</v>
-      </c>
-      <c r="C76" t="n">
-        <v>955</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>4.31818675994873</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>426</v>
-      </c>
-      <c r="B77" t="n">
-        <v>956</v>
-      </c>
-      <c r="C77" t="n">
-        <v>957</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2</v>
-      </c>
-      <c r="E77" t="n">
-        <v>4.164276838302612</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>786</v>
-      </c>
-      <c r="B78" t="n">
-        <v>958</v>
-      </c>
-      <c r="C78" t="n">
-        <v>958</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5.00518798828125</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>959</v>
-      </c>
-      <c r="C79" t="n">
-        <v>959</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4.652817070484161</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>458</v>
-      </c>
-      <c r="B80" t="n">
-        <v>960</v>
-      </c>
-      <c r="C80" t="n">
-        <v>960</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3.982547283172607</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>786</v>
-      </c>
-      <c r="B81" t="n">
-        <v>961</v>
-      </c>
-      <c r="C81" t="n">
-        <v>961</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>4.098101615905762</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>426</v>
-      </c>
-      <c r="B82" t="n">
-        <v>962</v>
-      </c>
-      <c r="C82" t="n">
-        <v>966</v>
-      </c>
-      <c r="D82" t="n">
-        <v>5</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2.697428035736084</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>967</v>
-      </c>
-      <c r="C83" t="n">
-        <v>968</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>3.965216100215912</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>786</v>
-      </c>
-      <c r="B84" t="n">
-        <v>969</v>
-      </c>
-      <c r="C84" t="n">
-        <v>969</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>4.503633499145508</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>130</v>
-      </c>
-      <c r="B85" t="n">
-        <v>970</v>
-      </c>
-      <c r="C85" t="n">
-        <v>971</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2.943284034729004</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>98</v>
-      </c>
-      <c r="B86" t="n">
-        <v>972</v>
-      </c>
-      <c r="C86" t="n">
-        <v>975</v>
-      </c>
-      <c r="D86" t="n">
-        <v>4</v>
-      </c>
-      <c r="E86" t="n">
-        <v>4.107958614826202</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>130</v>
-      </c>
-      <c r="B87" t="n">
-        <v>976</v>
-      </c>
-      <c r="C87" t="n">
-        <v>976</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2.838490724563599</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>458</v>
-      </c>
-      <c r="B88" t="n">
-        <v>977</v>
-      </c>
-      <c r="C88" t="n">
-        <v>977</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>4.934789657592773</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>426</v>
-      </c>
-      <c r="B89" t="n">
-        <v>978</v>
-      </c>
-      <c r="C89" t="n">
-        <v>984</v>
-      </c>
-      <c r="D89" t="n">
-        <v>7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>4.07284985269819</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>458</v>
-      </c>
-      <c r="B90" t="n">
-        <v>985</v>
-      </c>
-      <c r="C90" t="n">
-        <v>985</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>3.655437707901001</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>786</v>
-      </c>
-      <c r="B91" t="n">
-        <v>986</v>
-      </c>
-      <c r="C91" t="n">
-        <v>986</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.870490550994873</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B92" t="n">
-        <v>987</v>
-      </c>
-      <c r="C92" t="n">
-        <v>987</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2.775432825088501</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>754</v>
-      </c>
-      <c r="B93" t="n">
-        <v>988</v>
-      </c>
-      <c r="C93" t="n">
-        <v>988</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>4.867009162902832</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>130</v>
-      </c>
-      <c r="B94" t="n">
-        <v>989</v>
-      </c>
-      <c r="C94" t="n">
-        <v>989</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" t="n">
-        <v>4.468954563140869</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>754</v>
-      </c>
-      <c r="B95" t="n">
-        <v>990</v>
-      </c>
-      <c r="C95" t="n">
-        <v>990</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2.821754455566406</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>130</v>
-      </c>
-      <c r="B96" t="n">
-        <v>991</v>
-      </c>
-      <c r="C96" t="n">
-        <v>991</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2.582774877548218</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>786</v>
-      </c>
-      <c r="B97" t="n">
-        <v>992</v>
-      </c>
-      <c r="C97" t="n">
-        <v>992</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" t="n">
-        <v>3.894192934036255</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>130</v>
-      </c>
-      <c r="B98" t="n">
-        <v>993</v>
-      </c>
-      <c r="C98" t="n">
-        <v>993</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" t="n">
-        <v>4.551759243011475</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>786</v>
-      </c>
-      <c r="B99" t="n">
-        <v>994</v>
-      </c>
-      <c r="C99" t="n">
-        <v>994</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" t="n">
-        <v>5.07814884185791</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B100" t="n">
-        <v>995</v>
-      </c>
-      <c r="C100" t="n">
-        <v>995</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" t="n">
-        <v>4.838149547576904</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>458</v>
-      </c>
-      <c r="B101" t="n">
-        <v>996</v>
-      </c>
-      <c r="C101" t="n">
-        <v>996</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" t="n">
-        <v>4.612411499023438</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B102" t="n">
-        <v>997</v>
-      </c>
-      <c r="C102" t="n">
-        <v>997</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2.717090845108032</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B103" t="n">
-        <v>998</v>
-      </c>
-      <c r="C103" t="n">
-        <v>998</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" t="n">
-        <v>4.453832149505615</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>458</v>
-      </c>
-      <c r="B104" t="n">
-        <v>999</v>
-      </c>
-      <c r="C104" t="n">
-        <v>999</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2.787965059280396</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1001</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>3.326910972595215</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>458</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1002</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1002</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" t="n">
-        <v>4.879689693450928</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>786</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>7.194983959197998</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1004</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1004</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>6.27675199508667</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>458</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" t="n">
-        <v>3.881736516952515</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>98</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>2.869621276855469</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>130</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1007</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1007</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2.791660308837891</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>98</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1008</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1009</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2.493100523948669</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>426</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1010</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1014</v>
-      </c>
-      <c r="D113" t="n">
-        <v>5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>2.897637367248535</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>458</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1015</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" t="n">
-        <v>2.73037314414978</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1017</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7.779750108718872</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" t="n">
-        <v>5.308578014373779</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5.972108840942383</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>98</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" t="n">
-        <v>5.973338603973389</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>458</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1029</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2.78407006793552</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>426</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1033</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2.623905599117279</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>458</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1034</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1036</v>
-      </c>
-      <c r="D121" t="n">
-        <v>3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.816620349884033</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>426</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1037</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1037</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2.805392980575562</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>458</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1038</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1038</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2.765192031860352</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1039</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1042</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>2.736487090587616</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>786</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1043</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1043</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>5.748984813690186</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>426</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1044</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1075</v>
-      </c>
-      <c r="D126" t="n">
-        <v>32</v>
-      </c>
-      <c r="E126" t="n">
-        <v>2.80390377342701</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>786</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1076</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1077</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2.847345948219299</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>754</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1078</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1087</v>
-      </c>
-      <c r="D128" t="n">
-        <v>10</v>
-      </c>
-      <c r="E128" t="n">
-        <v>2.720788741111755</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>1088</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1089</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5.848273456096649</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>458</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1090</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1090</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.67955493927002</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>786</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1091</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1091</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" t="n">
-        <v>5.414397716522217</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1092</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1092</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>5.5299973487854</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>458</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1093</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1093</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2.857965469360352</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1094</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1094</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4.114706039428711</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1095</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1095</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>5.035489082336426</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>458</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1096</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1101</v>
-      </c>
-      <c r="D136" t="n">
-        <v>6</v>
-      </c>
-      <c r="E136" t="n">
-        <v>3.701775113741557</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1102</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1103</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.361980319023132</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>786</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1104</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1104</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" t="n">
-        <v>5.192927360534668</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>754</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1105</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1105</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2.750695943832397</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>786</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1106</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1107</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>3.889128923416138</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>754</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1108</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1110</v>
-      </c>
-      <c r="D141" t="n">
-        <v>3</v>
-      </c>
-      <c r="E141" t="n">
-        <v>2.619842847188314</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>130</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1111</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1111</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>5.053542613983154</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>786</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1112</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1113</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3.375550508499146</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>754</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1114</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1122</v>
-      </c>
-      <c r="D144" t="n">
-        <v>9</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2.703804307513767</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>786</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1123</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D145" t="n">
-        <v>2</v>
-      </c>
-      <c r="E145" t="n">
-        <v>4.663923501968384</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>1125</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1125</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>5.812551915645599</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>754</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1126</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1127</v>
-      </c>
-      <c r="D147" t="n">
-        <v>2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.627874374389648</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>786</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1128</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1129</v>
-      </c>
-      <c r="D148" t="n">
-        <v>2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>3.675866723060608</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>754</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1130</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1130</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2.873728036880493</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1131</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1131</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>5.463923931121826</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>98</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1132</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1132</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" t="n">
-        <v>2.530469655990601</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>130</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1133</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1133</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>2.934986114501953</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1134</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1134</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" t="n">
-        <v>4.56052827835083</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>130</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1135</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1135</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1</v>
-      </c>
-      <c r="E154" t="n">
-        <v>4.595083236694336</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>98</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1136</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1136</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" t="n">
-        <v>5.392159938812256</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>458</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1137</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1138</v>
-      </c>
-      <c r="D156" t="n">
-        <v>2</v>
-      </c>
-      <c r="E156" t="n">
-        <v>4.230108499526978</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>98</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1139</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1140</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2</v>
-      </c>
-      <c r="E157" t="n">
-        <v>4.490600109100342</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>754</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1141</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D158" t="n">
-        <v>2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>3.171051740646362</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>786</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1143</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1143</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>2.671238899230957</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>130</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1144</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1145</v>
-      </c>
-      <c r="D160" t="n">
-        <v>2</v>
-      </c>
-      <c r="E160" t="n">
-        <v>4.95881199836731</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>754</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1146</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D161" t="n">
-        <v>5</v>
-      </c>
-      <c r="E161" t="n">
-        <v>2.734969282150268</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>130</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1151</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1</v>
-      </c>
-      <c r="E162" t="n">
-        <v>3.562044620513916</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>1152</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1153</v>
-      </c>
-      <c r="D163" t="n">
-        <v>2</v>
-      </c>
-      <c r="E163" t="n">
-        <v>4.113081067800522</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>426</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1154</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1156</v>
-      </c>
-      <c r="D164" t="n">
-        <v>3</v>
-      </c>
-      <c r="E164" t="n">
-        <v>3.660924752553304</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>786</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1157</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1159</v>
-      </c>
-      <c r="D165" t="n">
-        <v>3</v>
-      </c>
-      <c r="E165" t="n">
-        <v>4.476324081420898</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>754</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1160</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1163</v>
-      </c>
-      <c r="D166" t="n">
-        <v>4</v>
-      </c>
-      <c r="E166" t="n">
-        <v>2.607899188995361</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>786</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1164</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1165</v>
-      </c>
-      <c r="D167" t="n">
-        <v>2</v>
-      </c>
-      <c r="E167" t="n">
-        <v>3.276737451553345</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>754</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1166</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1166</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" t="n">
-        <v>2.819786787033081</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>426</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1167</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>2.568813800811768</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>458</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1168</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1168</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1</v>
-      </c>
-      <c r="E170" t="n">
-        <v>4.26960563659668</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>130</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1169</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1169</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" t="n">
-        <v>5.715146064758301</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>458</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1170</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1170</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" t="n">
-        <v>3.187367677688599</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>426</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1171</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1173</v>
-      </c>
-      <c r="D173" t="n">
-        <v>3</v>
-      </c>
-      <c r="E173" t="n">
-        <v>3.166019996007284</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>458</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1174</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1174</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1</v>
-      </c>
-      <c r="E174" t="n">
-        <v>16.99478721618652</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1175</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1175</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="n">
-        <v>6.109348297119141</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>98</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1176</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1179</v>
-      </c>
-      <c r="D176" t="n">
-        <v>4</v>
-      </c>
-      <c r="E176" t="n">
-        <v>2.622386515140533</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>130</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1180</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="n">
-        <v>4.364014148712158</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>1181</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1182</v>
-      </c>
-      <c r="D178" t="n">
-        <v>2</v>
-      </c>
-      <c r="E178" t="n">
-        <v>4.630950450897217</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>786</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1183</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5.716254234313965</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>130</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1184</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1184</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" t="n">
-        <v>3.860185861587524</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>98</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1185</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D181" t="n">
-        <v>3</v>
-      </c>
-      <c r="E181" t="n">
-        <v>2.531466960906982</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>130</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1188</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1188</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" t="n">
-        <v>2.617632150650024</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>98</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1189</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1191</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2.595052719116211</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>130</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1192</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1</v>
-      </c>
-      <c r="E184" t="n">
-        <v>2.617074012756348</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>98</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1193</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1198</v>
-      </c>
-      <c r="D185" t="n">
-        <v>6</v>
-      </c>
-      <c r="E185" t="n">
-        <v>2.604545474052429</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>130</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1199</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1199</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2.742457866668701</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>98</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1202</v>
-      </c>
-      <c r="D187" t="n">
-        <v>3</v>
-      </c>
-      <c r="E187" t="n">
-        <v>2.793296972910563</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>130</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1203</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1203</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" t="n">
-        <v>2.929124355316162</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>98</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1204</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1206</v>
-      </c>
-      <c r="D189" t="n">
-        <v>3</v>
-      </c>
-      <c r="E189" t="n">
-        <v>2.627696990966797</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>130</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1207</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1207</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>2.787229776382446</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>98</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1208</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1208</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2.506999731063843</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>130</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1209</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1209</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1</v>
-      </c>
-      <c r="E192" t="n">
-        <v>5.028410911560059</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>1210</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1210</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" t="n">
-        <v>4.224989652633667</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1211</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1211</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1</v>
-      </c>
-      <c r="E194" t="n">
-        <v>4.346557140350342</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1212</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1212</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2.57465648651123</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>458</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1213</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1213</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" t="n">
-        <v>5.09433650970459</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>426</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1214</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1216</v>
-      </c>
-      <c r="D197" t="n">
-        <v>3</v>
-      </c>
-      <c r="E197" t="n">
-        <v>3.433335065841675</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>754</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1217</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1217</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="n">
-        <v>5.274118423461914</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>1218</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1221</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4</v>
-      </c>
-      <c r="E199" t="n">
-        <v>4.259389311075211</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1222</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1224</v>
-      </c>
-      <c r="D200" t="n">
-        <v>3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>3.066803693771362</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>426</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1225</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1225</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1</v>
-      </c>
-      <c r="E201" t="n">
-        <v>3.2933030128479</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1226</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1227</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2</v>
-      </c>
-      <c r="E202" t="n">
-        <v>4.724990606307983</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>786</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1228</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1228</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1</v>
-      </c>
-      <c r="E203" t="n">
-        <v>2.751452922821045</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>1229</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1229</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1</v>
-      </c>
-      <c r="E204" t="n">
-        <v>5.969126224517822</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>458</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1230</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1230</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1</v>
-      </c>
-      <c r="E205" t="n">
-        <v>5.692923069000244</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>1231</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1232</v>
-      </c>
-      <c r="D206" t="n">
-        <v>2</v>
-      </c>
-      <c r="E206" t="n">
-        <v>3.849024683237076</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>458</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1233</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1233</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1</v>
-      </c>
-      <c r="E207" t="n">
-        <v>4.984632015228271</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>1234</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1235</v>
-      </c>
-      <c r="D208" t="n">
-        <v>2</v>
-      </c>
-      <c r="E208" t="n">
-        <v>5.067507326602936</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>130</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1236</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1236</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1</v>
-      </c>
-      <c r="E209" t="n">
-        <v>3.873433589935303</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>458</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1237</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1237</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1</v>
-      </c>
-      <c r="E210" t="n">
-        <v>2.595146656036377</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>1238</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1241</v>
-      </c>
-      <c r="D211" t="n">
-        <v>4</v>
-      </c>
-      <c r="E211" t="n">
-        <v>4.606354758143425</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>426</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1242</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1244</v>
-      </c>
-      <c r="D212" t="n">
-        <v>3</v>
-      </c>
-      <c r="E212" t="n">
-        <v>2.807478348414103</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>786</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1245</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1245</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1</v>
-      </c>
-      <c r="E213" t="n">
-        <v>5.780913352966309</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>130</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1246</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1246</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1</v>
-      </c>
-      <c r="E214" t="n">
-        <v>6.272430419921875</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>1247</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1248</v>
-      </c>
-      <c r="D215" t="n">
-        <v>2</v>
-      </c>
-      <c r="E215" t="n">
-        <v>4.176141798496246</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10375,7 +6537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10544,7 +6706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12580,588 +8742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>residue</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mean_distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1171</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1182</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.721847593784332</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1183</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.622322797775269</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1184</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1196</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.891145467758179</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1197</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1197</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.726518630981445</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1198</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1201</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.615173399448395</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1202</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1202</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.754897832870483</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1203</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1203</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.540847301483154</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>458</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1204</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1204</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.972177505493164</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1205</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1210</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.311348875363668</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>786</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1211</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1213</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.349371433258057</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1214</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1217</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.638527691364288</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1218</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1218</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.307151317596436</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1219</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1219</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.674225330352783</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>458</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1220</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1220</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.192389488220215</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>754</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1221</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1223</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.699983278910319</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1224</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1225</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.276887208223343</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>458</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1226</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1227</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.351809501647949</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1228</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1229</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.823854565620422</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>786</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1230</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1230</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3.074822902679443</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1231</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10.49932384490967</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>458</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1232</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1232</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.422507286071777</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1233</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.399439364671707</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1235</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1236</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.830848932266235</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1237</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1237</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3.596805572509766</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1238</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1239</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.452148914337158</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>458</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1240</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1240</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.646229267120361</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1241</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1241</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.750662803649902</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1242</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1242</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.886943101882935</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>458</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1243</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1243</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5.382099151611328</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1244</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1245</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.228300482034683</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1246</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1248</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2.744063774744669</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13566,7 +9147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13673,364 +9254,6 @@
       </c>
       <c r="E5" t="n">
         <v>5.372162580490112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>residue</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mean_distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>786</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1218</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1218</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.987396001815796</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>754</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1219</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1219</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.809607267379761</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>786</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1220</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1220</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8.473804473876953</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1221</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1221</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.611276626586914</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>130</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1222</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1222</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.235934257507324</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1223</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1227</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.02363144159317</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>754</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1228</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1229</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.649108409881592</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1230</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.829772680997849</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>786</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1232</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1232</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.507475852966309</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>754</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1233</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.644590735435486</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1235</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1238</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.213535964488983</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>130</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1239</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1240</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.920765161514282</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>98</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1241</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1241</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.626747131347656</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>130</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1242</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1243</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.664292693138123</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1244</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1244</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.667032241821289</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>426</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1245</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1246</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.625817775726318</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>458</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1247</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1247</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.774203538894653</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>426</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1248</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1248</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.589515924453735</v>
       </c>
     </row>
   </sheetData>
@@ -32482,7 +27705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32519,3701 +27742,70 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B2" t="n">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C2" t="n">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>4.571046829223633</v>
+        <v>3.985555768013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="B3" t="n">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C3" t="n">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>4.607757568359375</v>
+        <v>6.250401973724365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>786</v>
+        <v>1114</v>
       </c>
       <c r="B4" t="n">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C4" t="n">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.682705879211426</v>
+        <v>4.018673896789551</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130</v>
+        <v>786</v>
       </c>
       <c r="B5" t="n">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C5" t="n">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>5.007413148880005</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>786</v>
-      </c>
-      <c r="B6" t="n">
-        <v>798</v>
-      </c>
-      <c r="C6" t="n">
-        <v>798</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.618870496749878</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B7" t="n">
-        <v>799</v>
-      </c>
-      <c r="C7" t="n">
-        <v>799</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.389949321746826</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>426</v>
-      </c>
-      <c r="B8" t="n">
-        <v>800</v>
-      </c>
-      <c r="C8" t="n">
-        <v>801</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.121975898742676</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>786</v>
-      </c>
-      <c r="B9" t="n">
-        <v>802</v>
-      </c>
-      <c r="C9" t="n">
-        <v>802</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.950672626495361</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>458</v>
-      </c>
-      <c r="B10" t="n">
-        <v>803</v>
-      </c>
-      <c r="C10" t="n">
-        <v>803</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.804620742797852</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>754</v>
-      </c>
-      <c r="B11" t="n">
-        <v>804</v>
-      </c>
-      <c r="C11" t="n">
-        <v>805</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.607986450195312</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>806</v>
-      </c>
-      <c r="C12" t="n">
-        <v>806</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.653582334518433</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>130</v>
-      </c>
-      <c r="B13" t="n">
-        <v>807</v>
-      </c>
-      <c r="C13" t="n">
-        <v>812</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.449869155883789</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>786</v>
-      </c>
-      <c r="B14" t="n">
-        <v>813</v>
-      </c>
-      <c r="C14" t="n">
-        <v>813</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.587250232696533</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>754</v>
-      </c>
-      <c r="B15" t="n">
-        <v>814</v>
-      </c>
-      <c r="C15" t="n">
-        <v>820</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.952039991106306</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>130</v>
-      </c>
-      <c r="B16" t="n">
-        <v>821</v>
-      </c>
-      <c r="C16" t="n">
-        <v>821</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5.787331581115723</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>426</v>
-      </c>
-      <c r="B17" t="n">
-        <v>822</v>
-      </c>
-      <c r="C17" t="n">
-        <v>836</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.050783141454061</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B18" t="n">
-        <v>837</v>
-      </c>
-      <c r="C18" t="n">
-        <v>837</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.451459169387817</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>786</v>
-      </c>
-      <c r="B19" t="n">
-        <v>838</v>
-      </c>
-      <c r="C19" t="n">
-        <v>838</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.667112588882446</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>458</v>
-      </c>
-      <c r="B20" t="n">
-        <v>839</v>
-      </c>
-      <c r="C20" t="n">
-        <v>840</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.324929475784302</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>786</v>
-      </c>
-      <c r="B21" t="n">
-        <v>841</v>
-      </c>
-      <c r="C21" t="n">
-        <v>843</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.577434619267781</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>458</v>
-      </c>
-      <c r="B22" t="n">
-        <v>844</v>
-      </c>
-      <c r="C22" t="n">
-        <v>844</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.682840585708618</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>786</v>
-      </c>
-      <c r="B23" t="n">
-        <v>845</v>
-      </c>
-      <c r="C23" t="n">
-        <v>845</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.962091445922852</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>426</v>
-      </c>
-      <c r="B24" t="n">
-        <v>846</v>
-      </c>
-      <c r="C24" t="n">
-        <v>877</v>
-      </c>
-      <c r="D24" t="n">
-        <v>32</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.768601976335049</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>878</v>
-      </c>
-      <c r="C25" t="n">
-        <v>878</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.500603079795837</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B26" t="n">
-        <v>879</v>
-      </c>
-      <c r="C26" t="n">
-        <v>879</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.226093769073486</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>458</v>
-      </c>
-      <c r="B27" t="n">
-        <v>880</v>
-      </c>
-      <c r="C27" t="n">
-        <v>887</v>
-      </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.18983981013298</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B28" t="n">
-        <v>888</v>
-      </c>
-      <c r="C28" t="n">
-        <v>889</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3.041019678115845</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>98</v>
-      </c>
-      <c r="B29" t="n">
-        <v>890</v>
-      </c>
-      <c r="C29" t="n">
-        <v>897</v>
-      </c>
-      <c r="D29" t="n">
-        <v>8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.79263100028038</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B30" t="n">
-        <v>898</v>
-      </c>
-      <c r="C30" t="n">
-        <v>899</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3.793983936309814</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>458</v>
-      </c>
-      <c r="B31" t="n">
-        <v>900</v>
-      </c>
-      <c r="C31" t="n">
-        <v>900</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5.383437633514404</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>98</v>
-      </c>
-      <c r="B32" t="n">
-        <v>901</v>
-      </c>
-      <c r="C32" t="n">
-        <v>901</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2.685463666915894</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>130</v>
-      </c>
-      <c r="B33" t="n">
-        <v>902</v>
-      </c>
-      <c r="C33" t="n">
-        <v>902</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2.808071613311768</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B34" t="n">
-        <v>903</v>
-      </c>
-      <c r="C34" t="n">
-        <v>907</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4.185372161865234</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B35" t="n">
-        <v>908</v>
-      </c>
-      <c r="C35" t="n">
-        <v>913</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.786783973375956</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B36" t="n">
-        <v>914</v>
-      </c>
-      <c r="C36" t="n">
-        <v>914</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5.018566608428955</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>98</v>
-      </c>
-      <c r="B37" t="n">
-        <v>915</v>
-      </c>
-      <c r="C37" t="n">
-        <v>916</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4.106648683547974</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>130</v>
-      </c>
-      <c r="B38" t="n">
-        <v>917</v>
-      </c>
-      <c r="C38" t="n">
-        <v>917</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3.881508350372314</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>786</v>
-      </c>
-      <c r="B39" t="n">
-        <v>918</v>
-      </c>
-      <c r="C39" t="n">
-        <v>918</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2.949112415313721</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>130</v>
-      </c>
-      <c r="B40" t="n">
-        <v>919</v>
-      </c>
-      <c r="C40" t="n">
-        <v>920</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>3.387676954269409</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B41" t="n">
-        <v>921</v>
-      </c>
-      <c r="C41" t="n">
-        <v>922</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>5.869009971618652</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>130</v>
-      </c>
-      <c r="B42" t="n">
-        <v>923</v>
-      </c>
-      <c r="C42" t="n">
-        <v>923</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>5.649188995361328</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>458</v>
-      </c>
-      <c r="B43" t="n">
-        <v>924</v>
-      </c>
-      <c r="C43" t="n">
-        <v>924</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5.176239490509033</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B44" t="n">
-        <v>925</v>
-      </c>
-      <c r="C44" t="n">
-        <v>925</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5.380880355834961</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>458</v>
-      </c>
-      <c r="B45" t="n">
-        <v>926</v>
-      </c>
-      <c r="C45" t="n">
-        <v>926</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3.824585914611816</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B46" t="n">
-        <v>927</v>
-      </c>
-      <c r="C46" t="n">
-        <v>929</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.652637720108032</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B47" t="n">
-        <v>930</v>
-      </c>
-      <c r="C47" t="n">
-        <v>931</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3.428165674209595</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B48" t="n">
-        <v>932</v>
-      </c>
-      <c r="C48" t="n">
-        <v>934</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2.810250838597616</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B49" t="n">
-        <v>935</v>
-      </c>
-      <c r="C49" t="n">
-        <v>935</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2.749915838241577</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B50" t="n">
-        <v>936</v>
-      </c>
-      <c r="C50" t="n">
-        <v>937</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2.738996624946594</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B51" t="n">
-        <v>938</v>
-      </c>
-      <c r="C51" t="n">
-        <v>939</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2.6303471326828</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B52" t="n">
-        <v>940</v>
-      </c>
-      <c r="C52" t="n">
-        <v>942</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2.891084353129069</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>458</v>
-      </c>
-      <c r="B53" t="n">
-        <v>943</v>
-      </c>
-      <c r="C53" t="n">
-        <v>943</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.978311061859131</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>786</v>
-      </c>
-      <c r="B54" t="n">
-        <v>944</v>
-      </c>
-      <c r="C54" t="n">
-        <v>945</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5.886995553970337</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>458</v>
-      </c>
-      <c r="B55" t="n">
-        <v>946</v>
-      </c>
-      <c r="C55" t="n">
-        <v>946</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.620572566986084</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>947</v>
-      </c>
-      <c r="C56" t="n">
-        <v>947</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.742761671543121</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>426</v>
-      </c>
-      <c r="B57" t="n">
-        <v>948</v>
-      </c>
-      <c r="C57" t="n">
-        <v>948</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.546910762786865</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B58" t="n">
-        <v>949</v>
-      </c>
-      <c r="C58" t="n">
-        <v>949</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4.452207088470459</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>754</v>
-      </c>
-      <c r="B59" t="n">
-        <v>950</v>
-      </c>
-      <c r="C59" t="n">
-        <v>952</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.807087818781535</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>786</v>
-      </c>
-      <c r="B60" t="n">
-        <v>953</v>
-      </c>
-      <c r="C60" t="n">
-        <v>953</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5.697708606719971</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>130</v>
-      </c>
-      <c r="B61" t="n">
-        <v>954</v>
-      </c>
-      <c r="C61" t="n">
-        <v>954</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4.648571968078613</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>786</v>
-      </c>
-      <c r="B62" t="n">
-        <v>955</v>
-      </c>
-      <c r="C62" t="n">
-        <v>955</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5.475061416625977</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>130</v>
-      </c>
-      <c r="B63" t="n">
-        <v>956</v>
-      </c>
-      <c r="C63" t="n">
-        <v>956</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2.724295139312744</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>957</v>
-      </c>
-      <c r="C64" t="n">
-        <v>957</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>5.031367421150208</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>98</v>
-      </c>
-      <c r="B65" t="n">
-        <v>958</v>
-      </c>
-      <c r="C65" t="n">
-        <v>960</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3.013118743896484</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B66" t="n">
-        <v>961</v>
-      </c>
-      <c r="C66" t="n">
-        <v>961</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2.651539087295532</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>458</v>
-      </c>
-      <c r="B67" t="n">
-        <v>962</v>
-      </c>
-      <c r="C67" t="n">
-        <v>962</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>3.247131824493408</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>963</v>
-      </c>
-      <c r="C68" t="n">
-        <v>963</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>4.341855585575104</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>786</v>
-      </c>
-      <c r="B69" t="n">
-        <v>964</v>
-      </c>
-      <c r="C69" t="n">
-        <v>964</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2.816502332687378</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>754</v>
-      </c>
-      <c r="B70" t="n">
-        <v>965</v>
-      </c>
-      <c r="C70" t="n">
-        <v>968</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2.712856948375702</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>130</v>
-      </c>
-      <c r="B71" t="n">
-        <v>969</v>
-      </c>
-      <c r="C71" t="n">
-        <v>969</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2.635934114456177</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>970</v>
-      </c>
-      <c r="C72" t="n">
-        <v>970</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4.35572075843811</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>458</v>
-      </c>
-      <c r="B73" t="n">
-        <v>971</v>
-      </c>
-      <c r="C73" t="n">
-        <v>973</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5.185923099517822</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>974</v>
-      </c>
-      <c r="C74" t="n">
-        <v>975</v>
-      </c>
-      <c r="D74" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" t="n">
-        <v>5.805635035037994</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>130</v>
-      </c>
-      <c r="B75" t="n">
-        <v>976</v>
-      </c>
-      <c r="C75" t="n">
-        <v>976</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" t="n">
-        <v>5.506701469421387</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>786</v>
-      </c>
-      <c r="B76" t="n">
-        <v>977</v>
-      </c>
-      <c r="C76" t="n">
-        <v>977</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>5.019547939300537</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>130</v>
-      </c>
-      <c r="B77" t="n">
-        <v>978</v>
-      </c>
-      <c r="C77" t="n">
-        <v>978</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>4.130542755126953</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>98</v>
-      </c>
-      <c r="B78" t="n">
-        <v>979</v>
-      </c>
-      <c r="C78" t="n">
-        <v>979</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>4.043747901916504</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>130</v>
-      </c>
-      <c r="B79" t="n">
-        <v>980</v>
-      </c>
-      <c r="C79" t="n">
-        <v>981</v>
-      </c>
-      <c r="D79" t="n">
-        <v>2</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4.576725482940674</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>458</v>
-      </c>
-      <c r="B80" t="n">
-        <v>982</v>
-      </c>
-      <c r="C80" t="n">
-        <v>982</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3.995090961456299</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>130</v>
-      </c>
-      <c r="B81" t="n">
-        <v>983</v>
-      </c>
-      <c r="C81" t="n">
-        <v>983</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.81843113899231</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>98</v>
-      </c>
-      <c r="B82" t="n">
-        <v>984</v>
-      </c>
-      <c r="C82" t="n">
-        <v>988</v>
-      </c>
-      <c r="D82" t="n">
-        <v>5</v>
-      </c>
-      <c r="E82" t="n">
-        <v>3.235018444061279</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B83" t="n">
-        <v>989</v>
-      </c>
-      <c r="C83" t="n">
-        <v>989</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="n">
-        <v>5.405490398406982</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>130</v>
-      </c>
-      <c r="B84" t="n">
-        <v>990</v>
-      </c>
-      <c r="C84" t="n">
-        <v>990</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>5.185398578643799</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>98</v>
-      </c>
-      <c r="B85" t="n">
-        <v>991</v>
-      </c>
-      <c r="C85" t="n">
-        <v>994</v>
-      </c>
-      <c r="D85" t="n">
-        <v>4</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3.320737481117249</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>458</v>
-      </c>
-      <c r="B86" t="n">
-        <v>995</v>
-      </c>
-      <c r="C86" t="n">
-        <v>996</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2</v>
-      </c>
-      <c r="E86" t="n">
-        <v>5.758461236953735</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>130</v>
-      </c>
-      <c r="B87" t="n">
-        <v>997</v>
-      </c>
-      <c r="C87" t="n">
-        <v>997</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>4.547695159912109</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>754</v>
-      </c>
-      <c r="B88" t="n">
-        <v>998</v>
-      </c>
-      <c r="C88" t="n">
-        <v>999</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2</v>
-      </c>
-      <c r="E88" t="n">
-        <v>5.665093898773193</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>130</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>5.492571353912354</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>786</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1001</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>5.180086612701416</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1002</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1002</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>5.238656997680664</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>426</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2.67652702331543</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>1004</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D93" t="n">
-        <v>3</v>
-      </c>
-      <c r="E93" t="n">
-        <v>4.867728590965271</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>458</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1007</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1008</v>
-      </c>
-      <c r="D94" t="n">
-        <v>2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>5.111151456832886</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>130</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1009</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1009</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>3.575242757797241</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>786</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1010</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1010</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>4.998326301574707</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>754</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1011</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1011</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" t="n">
-        <v>4.603933334350586</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>98</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1012</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1014</v>
-      </c>
-      <c r="D98" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2.713856299718221</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>458</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1015</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" t="n">
-        <v>3.85211443901062</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1017</v>
-      </c>
-      <c r="D100" t="n">
-        <v>2</v>
-      </c>
-      <c r="E100" t="n">
-        <v>5.02210533618927</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>458</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.599933624267578</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>786</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D102" t="n">
-        <v>2</v>
-      </c>
-      <c r="E102" t="n">
-        <v>6.192952156066895</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" t="n">
-        <v>4.623019158840179</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>786</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1022</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1022</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1</v>
-      </c>
-      <c r="E104" t="n">
-        <v>3.925039529800415</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>98</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1023</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1023</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" t="n">
-        <v>5.908662796020508</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1024</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" t="n">
-        <v>3.55890941619873</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>458</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>4.336556434631348</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>130</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1026</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1026</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>6.135622501373291</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>458</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1027</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" t="n">
-        <v>5.09491491317749</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>130</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1028</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1028</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>5.112029075622559</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>98</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1029</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1029</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2.667347192764282</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>130</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1032</v>
-      </c>
-      <c r="D112" t="n">
-        <v>3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4.427242835362752</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>98</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1033</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1036</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4</v>
-      </c>
-      <c r="E113" t="n">
-        <v>2.62936919927597</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>130</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1037</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1037</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" t="n">
-        <v>2.71649956703186</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>98</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1038</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1042</v>
-      </c>
-      <c r="D115" t="n">
-        <v>5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2.669805765151978</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>130</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1043</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1043</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" t="n">
-        <v>2.545187711715698</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>98</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1044</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1045</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2.729225993156433</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>130</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1046</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1046</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2.739820957183838</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>98</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1047</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1053</v>
-      </c>
-      <c r="D119" t="n">
-        <v>7</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2.629871368408203</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>130</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1054</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1054</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2.743660449981689</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>98</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1055</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1059</v>
-      </c>
-      <c r="D121" t="n">
-        <v>5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.714289379119873</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>130</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1060</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1061</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4.518073797225952</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>458</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1062</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1062</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.468279838562012</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>1063</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1063</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="n">
-        <v>5.721096396446228</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1064</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1064</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>5.755694389343262</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>130</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1065</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1065</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>5.276055812835693</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>786</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1066</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1067</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4.019395470619202</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>754</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1068</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1070</v>
-      </c>
-      <c r="D128" t="n">
-        <v>3</v>
-      </c>
-      <c r="E128" t="n">
-        <v>2.950687408447266</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>458</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1071</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1071</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4.624150276184082</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1072</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1072</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.772729158401489</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>458</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1073</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1073</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2.734419107437134</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1074</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1075</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>2.613929033279419</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>458</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1076</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1081</v>
-      </c>
-      <c r="D133" t="n">
-        <v>6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2.804515997568766</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1082</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1083</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2.634564161300659</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>130</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1084</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1085</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>3.745190858840942</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>98</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1086</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1086</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2.77902364730835</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>130</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1087</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1087</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2.541682720184326</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>98</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1088</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1089</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2.68403160572052</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>130</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1090</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1090</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2.49576473236084</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>98</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1091</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1093</v>
-      </c>
-      <c r="D140" t="n">
-        <v>3</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2.631155570348104</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>130</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1094</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1095</v>
-      </c>
-      <c r="D141" t="n">
-        <v>2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>2.806605935096741</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>98</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1096</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1096</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>2.541255474090576</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>130</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1097</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1097</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>5.348832130432129</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>98</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1098</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1099</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2.568580865859985</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>130</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1100</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2.703729629516602</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>98</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1101</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1102</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.748763084411621</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>130</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1103</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1103</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.692139148712158</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>98</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1104</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1109</v>
-      </c>
-      <c r="D148" t="n">
-        <v>6</v>
-      </c>
-      <c r="E148" t="n">
-        <v>2.694666266441345</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>130</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1110</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1110</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2.585399866104126</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>98</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1111</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1113</v>
-      </c>
-      <c r="D150" t="n">
-        <v>3</v>
-      </c>
-      <c r="E150" t="n">
-        <v>2.646274248758952</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>786</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1114</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1115</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2</v>
-      </c>
-      <c r="E151" t="n">
-        <v>7.288766860961914</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>130</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1116</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1116</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>5.052262783050537</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>98</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1117</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1118</v>
-      </c>
-      <c r="D153" t="n">
-        <v>2</v>
-      </c>
-      <c r="E153" t="n">
-        <v>2.725812554359436</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>130</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1119</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1119</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2.586018085479736</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>98</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1120</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1120</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" t="n">
-        <v>2.743078231811523</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>1121</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1121</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>5.617090404033661</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>426</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1122</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D157" t="n">
-        <v>3</v>
-      </c>
-      <c r="E157" t="n">
-        <v>2.640183846155802</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>458</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1125</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D158" t="n">
-        <v>2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>2.745364546775818</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>1127</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1127</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>5.153307318687439</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1128</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1128</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1</v>
-      </c>
-      <c r="E160" t="n">
-        <v>5.416523456573486</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>130</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1129</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1130</v>
-      </c>
-      <c r="D161" t="n">
-        <v>2</v>
-      </c>
-      <c r="E161" t="n">
-        <v>3.862144947052002</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>754</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1131</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1136</v>
-      </c>
-      <c r="D162" t="n">
-        <v>6</v>
-      </c>
-      <c r="E162" t="n">
-        <v>2.723266998926798</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>1137</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1137</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>3.671257555484772</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>130</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1138</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1138</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5.420927047729492</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>1139</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1139</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" t="n">
-        <v>5.489288091659546</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>130</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1140</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1141</v>
-      </c>
-      <c r="D166" t="n">
-        <v>2</v>
-      </c>
-      <c r="E166" t="n">
-        <v>4.819173336029053</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>98</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1142</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1145</v>
-      </c>
-      <c r="D167" t="n">
-        <v>4</v>
-      </c>
-      <c r="E167" t="n">
-        <v>3.517067730426788</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>130</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1146</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1146</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" t="n">
-        <v>3.922176837921143</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>98</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1147</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1147</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>4.354162693023682</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>1148</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1148</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1</v>
-      </c>
-      <c r="E170" t="n">
-        <v>5.729384779930115</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1149</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1149</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" t="n">
-        <v>5.15229320526123</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1150</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1161</v>
-      </c>
-      <c r="D172" t="n">
-        <v>12</v>
-      </c>
-      <c r="E172" t="n">
-        <v>2.724778413772583</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>458</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1162</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1163</v>
-      </c>
-      <c r="D173" t="n">
-        <v>2</v>
-      </c>
-      <c r="E173" t="n">
-        <v>3.405200958251953</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1164</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1165</v>
-      </c>
-      <c r="D174" t="n">
-        <v>2</v>
-      </c>
-      <c r="E174" t="n">
-        <v>2.738363146781921</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>458</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1166</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1166</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="n">
-        <v>2.812797546386719</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1169</v>
-      </c>
-      <c r="D176" t="n">
-        <v>3</v>
-      </c>
-      <c r="E176" t="n">
-        <v>2.8413032690684</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>426</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1170</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1170</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="n">
-        <v>4.509846210479736</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>786</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1171</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1172</v>
-      </c>
-      <c r="D178" t="n">
-        <v>2</v>
-      </c>
-      <c r="E178" t="n">
-        <v>4.292189955711365</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>754</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1173</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D179" t="n">
-        <v>15</v>
-      </c>
-      <c r="E179" t="n">
-        <v>2.673382536570231</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>426</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1188</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1188</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5.920079231262207</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>754</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1189</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1190</v>
-      </c>
-      <c r="D181" t="n">
-        <v>2</v>
-      </c>
-      <c r="E181" t="n">
-        <v>2.664689183235168</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>130</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1191</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1191</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5.808138847351074</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>754</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1199</v>
-      </c>
-      <c r="D183" t="n">
-        <v>8</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2.649161577224731</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1201</v>
-      </c>
-      <c r="D184" t="n">
-        <v>2</v>
-      </c>
-      <c r="E184" t="n">
-        <v>3.713958263397217</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>786</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1202</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1202</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1</v>
-      </c>
-      <c r="E185" t="n">
-        <v>4.495097637176514</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>754</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1203</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1207</v>
-      </c>
-      <c r="D186" t="n">
-        <v>5</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2.689617967605591</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>786</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1208</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1208</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>6.012166023254395</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>1209</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1209</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" t="n">
-        <v>5.190109133720398</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>754</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1210</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1210</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" t="n">
-        <v>4.777865886688232</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>130</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1211</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1211</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>4.997838020324707</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>98</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1212</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1214</v>
-      </c>
-      <c r="D191" t="n">
-        <v>3</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2.668866793314616</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>130</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1215</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1218</v>
-      </c>
-      <c r="D192" t="n">
-        <v>4</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2.771477282047272</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>98</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1219</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1219</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2.547183275222778</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>130</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1220</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1220</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2.685017108917236</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>98</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1221</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1222</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2.521181225776672</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>130</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1223</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1223</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2.879247426986694</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>98</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1224</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1224</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2.54803204536438</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>130</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1225</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1225</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2.649658203125</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>98</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1226</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1226</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2.669004440307617</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>786</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1227</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1227</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1</v>
-      </c>
-      <c r="E200" t="n">
-        <v>4.17116641998291</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>130</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1228</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1228</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1</v>
-      </c>
-      <c r="E201" t="n">
-        <v>4.367189407348633</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>98</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1229</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D202" t="n">
-        <v>6</v>
-      </c>
-      <c r="E202" t="n">
-        <v>2.664821704228719</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>130</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1235</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1235</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1</v>
-      </c>
-      <c r="E203" t="n">
-        <v>3.08314847946167</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>1236</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1236</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1</v>
-      </c>
-      <c r="E204" t="n">
-        <v>5.779626250267029</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>786</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1237</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1237</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1</v>
-      </c>
-      <c r="E205" t="n">
-        <v>5.389542579650879</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>458</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1238</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1238</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1</v>
-      </c>
-      <c r="E206" t="n">
-        <v>5.245771884918213</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>786</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1239</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1239</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1</v>
-      </c>
-      <c r="E207" t="n">
-        <v>5.859766483306885</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>1240</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1240</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" t="n">
-        <v>4.377732694149017</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>458</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1241</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1241</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1</v>
-      </c>
-      <c r="E209" t="n">
-        <v>4.399635791778564</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>130</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1242</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1242</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1</v>
-      </c>
-      <c r="E210" t="n">
-        <v>5.774796962738037</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>458</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1243</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1243</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="n">
-        <v>5.391464233398438</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1244</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1244</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1</v>
-      </c>
-      <c r="E212" t="n">
-        <v>14.79979610443115</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>1245</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1245</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1</v>
-      </c>
-      <c r="E213" t="n">
-        <v>4.71518349647522</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>130</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1246</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1246</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1</v>
-      </c>
-      <c r="E214" t="n">
-        <v>5.153614521026611</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>786</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1247</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1247</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1</v>
-      </c>
-      <c r="E215" t="n">
-        <v>4.048985958099365</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>754</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1248</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1248</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1</v>
-      </c>
-      <c r="E216" t="n">
-        <v>2.705824851989746</v>
+        <v>3.825257897377014</v>
       </c>
     </row>
   </sheetData>

--- a/results_G2/residue_clusters.xlsx
+++ b/results_G2/residue_clusters.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="2333" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2372" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2397" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2381" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2223" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2343" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2343" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2372" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2334" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2230" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2515" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2280" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,19 +468,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="C2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5.383437633514404</v>
+        <v>2.703729629516602</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +488,16 @@
         <v>98</v>
       </c>
       <c r="B3" t="n">
-        <v>901</v>
+        <v>1101</v>
       </c>
       <c r="C3" t="n">
-        <v>901</v>
+        <v>1102</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2.685463666915894</v>
+        <v>2.748763084411621</v>
       </c>
     </row>
     <row r="4">
@@ -504,84 +505,84 @@
         <v>130</v>
       </c>
       <c r="B4" t="n">
-        <v>902</v>
+        <v>1103</v>
       </c>
       <c r="C4" t="n">
-        <v>902</v>
+        <v>1103</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.808071613311768</v>
+        <v>2.692139148712158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B5" t="n">
-        <v>903</v>
+        <v>1104</v>
       </c>
       <c r="C5" t="n">
-        <v>907</v>
+        <v>1109</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>4.185372161865234</v>
+        <v>2.694666266441345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1082</v>
+        <v>130</v>
       </c>
       <c r="B6" t="n">
-        <v>908</v>
+        <v>1110</v>
       </c>
       <c r="C6" t="n">
-        <v>913</v>
+        <v>1110</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2.786783973375956</v>
+        <v>2.585399866104126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
-        <v>914</v>
+        <v>1111</v>
       </c>
       <c r="C7" t="n">
-        <v>914</v>
+        <v>1113</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>5.018566608428955</v>
+        <v>2.646274248758952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98</v>
+        <v>786</v>
       </c>
       <c r="B8" t="n">
-        <v>915</v>
+        <v>1114</v>
       </c>
       <c r="C8" t="n">
-        <v>916</v>
+        <v>1115</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>4.106648683547974</v>
+        <v>7.288766860961914</v>
       </c>
     </row>
     <row r="9">
@@ -589,33 +590,33 @@
         <v>130</v>
       </c>
       <c r="B9" t="n">
-        <v>917</v>
+        <v>1116</v>
       </c>
       <c r="C9" t="n">
-        <v>917</v>
+        <v>1116</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>3.881508350372314</v>
+        <v>5.052262783050537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>786</v>
+        <v>98</v>
       </c>
       <c r="B10" t="n">
-        <v>918</v>
+        <v>1117</v>
       </c>
       <c r="C10" t="n">
-        <v>918</v>
+        <v>1118</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2.949112415313721</v>
+        <v>2.725812554359436</v>
       </c>
     </row>
     <row r="11">
@@ -623,271 +624,279 @@
         <v>130</v>
       </c>
       <c r="B11" t="n">
-        <v>919</v>
+        <v>1119</v>
       </c>
       <c r="C11" t="n">
-        <v>920</v>
+        <v>1119</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3.387676954269409</v>
+        <v>2.586018085479736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B12" t="n">
-        <v>921</v>
+        <v>1120</v>
       </c>
       <c r="C12" t="n">
-        <v>922</v>
+        <v>1120</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>5.869009971618652</v>
+        <v>2.743078231811523</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>130</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>923</v>
+        <v>1121</v>
       </c>
       <c r="C13" t="n">
-        <v>923</v>
+        <v>1121</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>5.649188995361328</v>
+        <v>5.617090404033661</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="B14" t="n">
-        <v>924</v>
+        <v>1122</v>
       </c>
       <c r="C14" t="n">
-        <v>924</v>
+        <v>1124</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>5.176239490509033</v>
+        <v>2.640183846155802</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1114</v>
+        <v>458</v>
       </c>
       <c r="B15" t="n">
-        <v>925</v>
+        <v>1125</v>
       </c>
       <c r="C15" t="n">
-        <v>925</v>
+        <v>1126</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>5.380880355834961</v>
+        <v>2.745364546775818</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>458</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>926</v>
+        <v>1127</v>
       </c>
       <c r="C16" t="n">
-        <v>926</v>
+        <v>1127</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>3.824585914611816</v>
+        <v>5.153307318687439</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1082</v>
+        <v>1114</v>
       </c>
       <c r="B17" t="n">
-        <v>927</v>
+        <v>1128</v>
       </c>
       <c r="C17" t="n">
-        <v>929</v>
+        <v>1128</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>2.652637720108032</v>
+        <v>5.416523456573486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1114</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
-        <v>930</v>
+        <v>1129</v>
       </c>
       <c r="C18" t="n">
-        <v>931</v>
+        <v>1130</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>3.428165674209595</v>
+        <v>3.862144947052002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1082</v>
+        <v>754</v>
       </c>
       <c r="B19" t="n">
-        <v>932</v>
+        <v>1131</v>
       </c>
       <c r="C19" t="n">
-        <v>934</v>
+        <v>1136</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>2.810250838597616</v>
+        <v>2.723266998926798</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>1114</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B20" t="n">
-        <v>935</v>
+        <v>1137</v>
       </c>
       <c r="C20" t="n">
-        <v>935</v>
+        <v>1137</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2.749915838241577</v>
+        <v>3.671257555484772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1082</v>
+        <v>130</v>
       </c>
       <c r="B21" t="n">
-        <v>936</v>
+        <v>1138</v>
       </c>
       <c r="C21" t="n">
-        <v>937</v>
+        <v>1138</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2.738996624946594</v>
+        <v>5.420927047729492</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1114</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>938</v>
+        <v>1139</v>
       </c>
       <c r="C22" t="n">
-        <v>939</v>
+        <v>1139</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2.6303471326828</v>
+        <v>5.489288091659546</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1082</v>
+        <v>130</v>
       </c>
       <c r="B23" t="n">
-        <v>940</v>
+        <v>1140</v>
       </c>
       <c r="C23" t="n">
-        <v>942</v>
+        <v>1141</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>2.891084353129069</v>
+        <v>4.819173336029053</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="B24" t="n">
-        <v>943</v>
+        <v>1142</v>
       </c>
       <c r="C24" t="n">
-        <v>943</v>
+        <v>1145</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>4.978311061859131</v>
+        <v>3.517067730426788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>786</v>
+        <v>130</v>
       </c>
       <c r="B25" t="n">
-        <v>944</v>
+        <v>1146</v>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>1146</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>5.886995553970337</v>
+        <v>3.922176837921143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="B26" t="n">
-        <v>946</v>
+        <v>1147</v>
       </c>
       <c r="C26" t="n">
-        <v>946</v>
+        <v>1147</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>4.620572566986084</v>
+        <v>4.354162693023682</v>
       </c>
     </row>
     <row r="27">
@@ -897,311 +906,307 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947</v>
+        <v>1148</v>
       </c>
       <c r="C27" t="n">
-        <v>947</v>
+        <v>1148</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>4.742761671543121</v>
+        <v>5.729384779930115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>426</v>
+        <v>1114</v>
       </c>
       <c r="B28" t="n">
-        <v>948</v>
+        <v>1149</v>
       </c>
       <c r="C28" t="n">
-        <v>948</v>
+        <v>1149</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>2.546910762786865</v>
+        <v>5.15229320526123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1114</v>
+        <v>1082</v>
       </c>
       <c r="B29" t="n">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="C29" t="n">
-        <v>949</v>
+        <v>1161</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>4.452207088470459</v>
+        <v>2.724778413772583</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>754</v>
+        <v>458</v>
       </c>
       <c r="B30" t="n">
-        <v>950</v>
+        <v>1162</v>
       </c>
       <c r="C30" t="n">
-        <v>952</v>
+        <v>1163</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>2.807087818781535</v>
+        <v>3.405200958251953</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B31" t="n">
-        <v>953</v>
+        <v>1164</v>
       </c>
       <c r="C31" t="n">
-        <v>953</v>
+        <v>1165</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>5.697708606719971</v>
+        <v>2.738363146781921</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="B32" t="n">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="C32" t="n">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>4.648571968078613</v>
+        <v>2.812797546386719</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B33" t="n">
-        <v>955</v>
+        <v>1167</v>
       </c>
       <c r="C33" t="n">
-        <v>955</v>
+        <v>1169</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>5.475061416625977</v>
+        <v>2.8413032690684</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="B34" t="n">
-        <v>956</v>
+        <v>1170</v>
       </c>
       <c r="C34" t="n">
-        <v>956</v>
+        <v>1170</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>2.724295139312744</v>
+        <v>4.509846210479736</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A35" t="n">
+        <v>786</v>
       </c>
       <c r="B35" t="n">
-        <v>957</v>
+        <v>1171</v>
       </c>
       <c r="C35" t="n">
-        <v>957</v>
+        <v>1172</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>5.031367421150208</v>
+        <v>4.292189955711365</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B36" t="n">
-        <v>958</v>
+        <v>1173</v>
       </c>
       <c r="C36" t="n">
-        <v>960</v>
+        <v>1187</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>3.013118743896484</v>
+        <v>2.673382536570231</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1114</v>
+        <v>426</v>
       </c>
       <c r="B37" t="n">
-        <v>961</v>
+        <v>1188</v>
       </c>
       <c r="C37" t="n">
-        <v>961</v>
+        <v>1188</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>2.651539087295532</v>
+        <v>5.920079231262207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B38" t="n">
-        <v>962</v>
+        <v>1189</v>
       </c>
       <c r="C38" t="n">
-        <v>962</v>
+        <v>1190</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>3.247131824493408</v>
+        <v>2.664689183235168</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A39" t="n">
+        <v>130</v>
       </c>
       <c r="B39" t="n">
-        <v>963</v>
+        <v>1191</v>
       </c>
       <c r="C39" t="n">
-        <v>963</v>
+        <v>1191</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>4.341855585575104</v>
+        <v>5.808138847351074</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B40" t="n">
-        <v>964</v>
+        <v>1192</v>
       </c>
       <c r="C40" t="n">
-        <v>964</v>
+        <v>1199</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>2.816502332687378</v>
+        <v>2.649161577224731</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>754</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B41" t="n">
-        <v>965</v>
+        <v>1200</v>
       </c>
       <c r="C41" t="n">
-        <v>968</v>
+        <v>1201</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>2.712856948375702</v>
+        <v>3.713958263397217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130</v>
+        <v>786</v>
       </c>
       <c r="B42" t="n">
-        <v>969</v>
+        <v>1202</v>
       </c>
       <c r="C42" t="n">
-        <v>969</v>
+        <v>1202</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>2.635934114456177</v>
+        <v>4.495097637176514</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A43" t="n">
+        <v>754</v>
       </c>
       <c r="B43" t="n">
-        <v>970</v>
+        <v>1203</v>
       </c>
       <c r="C43" t="n">
-        <v>970</v>
+        <v>1207</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>4.35572075843811</v>
+        <v>2.689617967605591</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B44" t="n">
-        <v>971</v>
+        <v>1208</v>
       </c>
       <c r="C44" t="n">
-        <v>973</v>
+        <v>1208</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>5.185923099517822</v>
+        <v>6.012166023254395</v>
       </c>
     </row>
     <row r="45">
@@ -1211,169 +1216,169 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>974</v>
+        <v>1209</v>
       </c>
       <c r="C45" t="n">
-        <v>975</v>
+        <v>1209</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>5.805635035037994</v>
+        <v>5.190109133720398</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B46" t="n">
-        <v>976</v>
+        <v>1210</v>
       </c>
       <c r="C46" t="n">
-        <v>976</v>
+        <v>1210</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>5.506701469421387</v>
+        <v>4.777865886688232</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>786</v>
+        <v>130</v>
       </c>
       <c r="B47" t="n">
-        <v>977</v>
+        <v>1211</v>
       </c>
       <c r="C47" t="n">
-        <v>977</v>
+        <v>1211</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>5.019547939300537</v>
+        <v>4.997838020324707</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B48" t="n">
-        <v>978</v>
+        <v>1212</v>
       </c>
       <c r="C48" t="n">
-        <v>978</v>
+        <v>1214</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>4.130542755126953</v>
+        <v>2.668866793314616</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B49" t="n">
-        <v>979</v>
+        <v>1215</v>
       </c>
       <c r="C49" t="n">
-        <v>979</v>
+        <v>1218</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>4.043747901916504</v>
+        <v>2.771477282047272</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B50" t="n">
-        <v>980</v>
+        <v>1219</v>
       </c>
       <c r="C50" t="n">
-        <v>981</v>
+        <v>1219</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>4.576725482940674</v>
+        <v>2.547183275222778</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B51" t="n">
-        <v>982</v>
+        <v>1220</v>
       </c>
       <c r="C51" t="n">
-        <v>982</v>
+        <v>1220</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>3.995090961456299</v>
+        <v>2.685017108917236</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B52" t="n">
-        <v>983</v>
+        <v>1221</v>
       </c>
       <c r="C52" t="n">
-        <v>983</v>
+        <v>1222</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>2.81843113899231</v>
+        <v>2.521181225776672</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B53" t="n">
-        <v>984</v>
+        <v>1223</v>
       </c>
       <c r="C53" t="n">
-        <v>988</v>
+        <v>1223</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>3.235018444061279</v>
+        <v>2.879247426986694</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B54" t="n">
-        <v>989</v>
+        <v>1224</v>
       </c>
       <c r="C54" t="n">
-        <v>989</v>
+        <v>1224</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>5.405490398406982</v>
+        <v>2.54803204536438</v>
       </c>
     </row>
     <row r="55">
@@ -1381,16 +1386,16 @@
         <v>130</v>
       </c>
       <c r="B55" t="n">
-        <v>990</v>
+        <v>1225</v>
       </c>
       <c r="C55" t="n">
-        <v>990</v>
+        <v>1225</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>5.185398578643799</v>
+        <v>2.649658203125</v>
       </c>
     </row>
     <row r="56">
@@ -1398,33 +1403,33 @@
         <v>98</v>
       </c>
       <c r="B56" t="n">
-        <v>991</v>
+        <v>1226</v>
       </c>
       <c r="C56" t="n">
-        <v>994</v>
+        <v>1226</v>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>3.320737481117249</v>
+        <v>2.669004440307617</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B57" t="n">
-        <v>995</v>
+        <v>1227</v>
       </c>
       <c r="C57" t="n">
-        <v>996</v>
+        <v>1227</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>5.758461236953735</v>
+        <v>4.17116641998291</v>
       </c>
     </row>
     <row r="58">
@@ -1432,33 +1437,277 @@
         <v>130</v>
       </c>
       <c r="B58" t="n">
-        <v>997</v>
+        <v>1228</v>
       </c>
       <c r="C58" t="n">
-        <v>997</v>
+        <v>1228</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>4.547695159912109</v>
+        <v>4.367189407348633</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>98</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.664821704228719</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>130</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1235</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.08314847946167</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1236</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.779626250267029</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>786</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.389542579650879</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>458</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1238</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.245771884918213</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>786</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1239</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1239</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.859766483306885</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1240</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.377732694149017</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>458</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.399635791778564</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>130</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5.774796962738037</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>458</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1243</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1243</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.391464233398438</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1244</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14.79979610443115</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1245</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.71518349647522</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>130</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1246</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.153614521026611</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>786</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1247</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.048985958099365</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
         <v>754</v>
       </c>
-      <c r="B59" t="n">
-        <v>998</v>
-      </c>
-      <c r="C59" t="n">
-        <v>999</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>5.665093898773193</v>
+      <c r="B73" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1248</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.705824851989746</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,19 +1758,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>754</v>
+        <v>426</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="C2" t="n">
-        <v>903</v>
+        <v>1106</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>3.371142983436584</v>
+        <v>2.669744423457554</v>
       </c>
     </row>
     <row r="3">
@@ -1529,256 +1778,256 @@
         <v>458</v>
       </c>
       <c r="B3" t="n">
-        <v>904</v>
+        <v>1107</v>
       </c>
       <c r="C3" t="n">
-        <v>904</v>
+        <v>1108</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>6.555117607116699</v>
+        <v>3.825428247451782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130</v>
+        <v>1114</v>
       </c>
       <c r="B4" t="n">
-        <v>905</v>
+        <v>1109</v>
       </c>
       <c r="C4" t="n">
-        <v>905</v>
+        <v>1109</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.71704363822937</v>
+        <v>3.804229497909546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="B5" t="n">
-        <v>906</v>
+        <v>1110</v>
       </c>
       <c r="C5" t="n">
-        <v>906</v>
+        <v>1111</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>5.291101932525635</v>
+        <v>4.257792830467224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="B6" t="n">
-        <v>907</v>
+        <v>1112</v>
       </c>
       <c r="C6" t="n">
-        <v>909</v>
+        <v>1112</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>3.437851270039876</v>
+        <v>2.637650012969971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="B7" t="n">
-        <v>910</v>
+        <v>1113</v>
       </c>
       <c r="C7" t="n">
-        <v>910</v>
+        <v>1113</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3.211757659912109</v>
+        <v>2.624404907226562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="B8" t="n">
-        <v>911</v>
+        <v>1114</v>
       </c>
       <c r="C8" t="n">
-        <v>914</v>
+        <v>1115</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2.693113267421722</v>
+        <v>2.579702377319336</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A9" t="n">
+        <v>458</v>
       </c>
       <c r="B9" t="n">
-        <v>915</v>
+        <v>1116</v>
       </c>
       <c r="C9" t="n">
-        <v>916</v>
+        <v>1117</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3.896921634674072</v>
+        <v>2.748244166374207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>458</v>
+        <v>1082</v>
       </c>
       <c r="B10" t="n">
-        <v>917</v>
+        <v>1118</v>
       </c>
       <c r="C10" t="n">
-        <v>917</v>
+        <v>1118</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4.941507339477539</v>
+        <v>4.641116142272949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1114</v>
+        <v>426</v>
       </c>
       <c r="B11" t="n">
-        <v>918</v>
+        <v>1119</v>
       </c>
       <c r="C11" t="n">
-        <v>918</v>
+        <v>1120</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>4.437892913818359</v>
+        <v>2.649507999420166</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>786</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>919</v>
+        <v>1121</v>
       </c>
       <c r="C12" t="n">
-        <v>919</v>
+        <v>1121</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2.891976594924927</v>
+        <v>4.827714443206787</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>754</v>
+        <v>458</v>
       </c>
       <c r="B13" t="n">
-        <v>920</v>
+        <v>1122</v>
       </c>
       <c r="C13" t="n">
-        <v>920</v>
+        <v>1122</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2.772083282470703</v>
+        <v>3.553557395935059</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>786</v>
+        <v>130</v>
       </c>
       <c r="B14" t="n">
-        <v>921</v>
+        <v>1123</v>
       </c>
       <c r="C14" t="n">
-        <v>921</v>
+        <v>1123</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>5.018359184265137</v>
+        <v>3.817336797714233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="B15" t="n">
-        <v>922</v>
+        <v>1124</v>
       </c>
       <c r="C15" t="n">
-        <v>922</v>
+        <v>1125</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>2.525403499603271</v>
+        <v>3.375023484230042</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1114</v>
+        <v>130</v>
       </c>
       <c r="B16" t="n">
-        <v>923</v>
+        <v>1126</v>
       </c>
       <c r="C16" t="n">
-        <v>923</v>
+        <v>1127</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>4.947884082794189</v>
+        <v>5.475780010223389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B17" t="n">
-        <v>924</v>
+        <v>1128</v>
       </c>
       <c r="C17" t="n">
-        <v>924</v>
+        <v>1128</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>4.738314628601074</v>
+        <v>2.494125604629517</v>
       </c>
     </row>
     <row r="18">
@@ -1786,152 +2035,154 @@
         <v>458</v>
       </c>
       <c r="B18" t="n">
-        <v>925</v>
+        <v>1129</v>
       </c>
       <c r="C18" t="n">
-        <v>925</v>
+        <v>1129</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>3.458163022994995</v>
+        <v>3.532645463943481</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>98</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>926</v>
+        <v>1130</v>
       </c>
       <c r="C19" t="n">
-        <v>933</v>
+        <v>1130</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2.804502576589584</v>
+        <v>4.512770056724548</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>786</v>
+        <v>426</v>
       </c>
       <c r="B20" t="n">
-        <v>934</v>
+        <v>1131</v>
       </c>
       <c r="C20" t="n">
-        <v>936</v>
+        <v>1131</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>4.221140543619792</v>
+        <v>5.250833034515381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130</v>
+        <v>1114</v>
       </c>
       <c r="B21" t="n">
-        <v>937</v>
+        <v>1132</v>
       </c>
       <c r="C21" t="n">
-        <v>937</v>
+        <v>1132</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>3.776639461517334</v>
+        <v>4.690715789794922</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>458</v>
+        <v>1082</v>
       </c>
       <c r="B22" t="n">
-        <v>938</v>
+        <v>1133</v>
       </c>
       <c r="C22" t="n">
-        <v>938</v>
+        <v>1138</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>10.2009220123291</v>
+        <v>2.727750062942505</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="B23" t="n">
-        <v>939</v>
+        <v>1139</v>
       </c>
       <c r="C23" t="n">
-        <v>940</v>
+        <v>1140</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>8.02987003326416</v>
+        <v>4.124595880508423</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130</v>
+        <v>1082</v>
       </c>
       <c r="B24" t="n">
-        <v>941</v>
+        <v>1141</v>
       </c>
       <c r="C24" t="n">
-        <v>941</v>
+        <v>1148</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>3.558153629302979</v>
+        <v>2.75703901052475</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B25" t="n">
-        <v>942</v>
+        <v>1149</v>
       </c>
       <c r="C25" t="n">
-        <v>948</v>
+        <v>1149</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>3.99876492364066</v>
+        <v>2.582760810852051</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130</v>
+        <v>1082</v>
       </c>
       <c r="B26" t="n">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="C26" t="n">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>4.332393169403076</v>
+        <v>2.660194158554077</v>
       </c>
     </row>
     <row r="27">
@@ -1939,50 +2190,50 @@
         <v>786</v>
       </c>
       <c r="B27" t="n">
-        <v>950</v>
+        <v>1151</v>
       </c>
       <c r="C27" t="n">
-        <v>950</v>
+        <v>1153</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>6.266888618469238</v>
+        <v>5.883691708246867</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B28" t="n">
-        <v>951</v>
+        <v>1154</v>
       </c>
       <c r="C28" t="n">
-        <v>951</v>
+        <v>1154</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>4.89597225189209</v>
+        <v>3.627395391464233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>426</v>
+        <v>1114</v>
       </c>
       <c r="B29" t="n">
-        <v>952</v>
+        <v>1155</v>
       </c>
       <c r="C29" t="n">
-        <v>954</v>
+        <v>1155</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>4.486414591471354</v>
+        <v>4.382041454315186</v>
       </c>
     </row>
     <row r="30">
@@ -1990,156 +2241,154 @@
         <v>458</v>
       </c>
       <c r="B30" t="n">
-        <v>955</v>
+        <v>1156</v>
       </c>
       <c r="C30" t="n">
-        <v>955</v>
+        <v>1156</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>4.31818675994873</v>
+        <v>4.591501712799072</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="B31" t="n">
-        <v>956</v>
+        <v>1157</v>
       </c>
       <c r="C31" t="n">
-        <v>957</v>
+        <v>1158</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>4.164276838302612</v>
+        <v>4.154908418655396</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>786</v>
+        <v>130</v>
       </c>
       <c r="B32" t="n">
-        <v>958</v>
+        <v>1159</v>
       </c>
       <c r="C32" t="n">
-        <v>958</v>
+        <v>1160</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>5.00518798828125</v>
+        <v>3.89611554145813</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A33" t="n">
+        <v>98</v>
       </c>
       <c r="B33" t="n">
-        <v>959</v>
+        <v>1161</v>
       </c>
       <c r="C33" t="n">
-        <v>959</v>
+        <v>1163</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>4.652817070484161</v>
+        <v>5.183982849121094</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B34" t="n">
-        <v>960</v>
+        <v>1164</v>
       </c>
       <c r="C34" t="n">
-        <v>960</v>
+        <v>1164</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>3.982547283172607</v>
+        <v>4.794691562652588</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>786</v>
+        <v>98</v>
       </c>
       <c r="B35" t="n">
-        <v>961</v>
+        <v>1165</v>
       </c>
       <c r="C35" t="n">
-        <v>961</v>
+        <v>1165</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>4.098101615905762</v>
+        <v>5.376296520233154</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>426</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B36" t="n">
-        <v>962</v>
+        <v>1166</v>
       </c>
       <c r="C36" t="n">
-        <v>966</v>
+        <v>1166</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>2.697428035736084</v>
+        <v>5.858773112297058</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A37" t="n">
+        <v>754</v>
       </c>
       <c r="B37" t="n">
-        <v>967</v>
+        <v>1167</v>
       </c>
       <c r="C37" t="n">
-        <v>968</v>
+        <v>1169</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>3.965216100215912</v>
+        <v>2.559399525324503</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>786</v>
+        <v>98</v>
       </c>
       <c r="B38" t="n">
-        <v>969</v>
+        <v>1170</v>
       </c>
       <c r="C38" t="n">
-        <v>969</v>
+        <v>1173</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>4.503633499145508</v>
+        <v>2.690127372741699</v>
       </c>
     </row>
     <row r="39">
@@ -2147,33 +2396,33 @@
         <v>130</v>
       </c>
       <c r="B39" t="n">
-        <v>970</v>
+        <v>1174</v>
       </c>
       <c r="C39" t="n">
-        <v>971</v>
+        <v>1175</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>2.943284034729004</v>
+        <v>4.346459150314331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B40" t="n">
-        <v>972</v>
+        <v>1176</v>
       </c>
       <c r="C40" t="n">
-        <v>975</v>
+        <v>1179</v>
       </c>
       <c r="D40" t="n">
         <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>4.107958614826202</v>
+        <v>6.699362635612488</v>
       </c>
     </row>
     <row r="41">
@@ -2181,305 +2430,86 @@
         <v>130</v>
       </c>
       <c r="B41" t="n">
-        <v>976</v>
+        <v>1180</v>
       </c>
       <c r="C41" t="n">
-        <v>976</v>
+        <v>1180</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>2.838490724563599</v>
+        <v>5.250769138336182</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="B42" t="n">
-        <v>977</v>
+        <v>1181</v>
       </c>
       <c r="C42" t="n">
-        <v>977</v>
+        <v>1182</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>4.934789657592773</v>
+        <v>2.720219254493713</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>426</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B43" t="n">
-        <v>978</v>
+        <v>1183</v>
       </c>
       <c r="C43" t="n">
-        <v>984</v>
+        <v>1184</v>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>4.07284985269819</v>
+        <v>4.607940912246704</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>458</v>
+        <v>1114</v>
       </c>
       <c r="B44" t="n">
-        <v>985</v>
+        <v>1185</v>
       </c>
       <c r="C44" t="n">
-        <v>985</v>
+        <v>1185</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>3.655437707901001</v>
+        <v>4.68082332611084</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="B45" t="n">
-        <v>986</v>
+        <v>1186</v>
       </c>
       <c r="C45" t="n">
-        <v>986</v>
+        <v>1186</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>2.870490550994873</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B46" t="n">
-        <v>987</v>
-      </c>
-      <c r="C46" t="n">
-        <v>987</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.775432825088501</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>754</v>
-      </c>
-      <c r="B47" t="n">
-        <v>988</v>
-      </c>
-      <c r="C47" t="n">
-        <v>988</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4.867009162902832</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>130</v>
-      </c>
-      <c r="B48" t="n">
-        <v>989</v>
-      </c>
-      <c r="C48" t="n">
-        <v>989</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>4.468954563140869</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>754</v>
-      </c>
-      <c r="B49" t="n">
-        <v>990</v>
-      </c>
-      <c r="C49" t="n">
-        <v>990</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2.821754455566406</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>130</v>
-      </c>
-      <c r="B50" t="n">
-        <v>991</v>
-      </c>
-      <c r="C50" t="n">
-        <v>991</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2.582774877548218</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>786</v>
-      </c>
-      <c r="B51" t="n">
-        <v>992</v>
-      </c>
-      <c r="C51" t="n">
-        <v>992</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3.894192934036255</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>130</v>
-      </c>
-      <c r="B52" t="n">
-        <v>993</v>
-      </c>
-      <c r="C52" t="n">
-        <v>993</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4.551759243011475</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>786</v>
-      </c>
-      <c r="B53" t="n">
-        <v>994</v>
-      </c>
-      <c r="C53" t="n">
-        <v>994</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5.07814884185791</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B54" t="n">
-        <v>995</v>
-      </c>
-      <c r="C54" t="n">
-        <v>995</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4.838149547576904</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>458</v>
-      </c>
-      <c r="B55" t="n">
-        <v>996</v>
-      </c>
-      <c r="C55" t="n">
-        <v>996</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.612411499023438</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B56" t="n">
-        <v>997</v>
-      </c>
-      <c r="C56" t="n">
-        <v>997</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2.717090845108032</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B57" t="n">
-        <v>998</v>
-      </c>
-      <c r="C57" t="n">
-        <v>998</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.453832149505615</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>458</v>
-      </c>
-      <c r="B58" t="n">
-        <v>999</v>
-      </c>
-      <c r="C58" t="n">
-        <v>999</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2.787965059280396</v>
+        <v>5.128213882446289</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2530,36 +2560,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1114</v>
+        <v>458</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="C2" t="n">
-        <v>900</v>
+        <v>1101</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2.829254865646362</v>
+        <v>3.732424139976501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>458</v>
+        <v>1114</v>
       </c>
       <c r="B3" t="n">
-        <v>901</v>
+        <v>1102</v>
       </c>
       <c r="C3" t="n">
-        <v>901</v>
+        <v>1103</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>3.108850479125977</v>
+        <v>4.361980319023132</v>
       </c>
     </row>
     <row r="4">
@@ -2567,86 +2597,84 @@
         <v>786</v>
       </c>
       <c r="B4" t="n">
-        <v>902</v>
+        <v>1104</v>
       </c>
       <c r="C4" t="n">
-        <v>908</v>
+        <v>1104</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4.008713279451642</v>
+        <v>5.192927360534668</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A5" t="n">
+        <v>754</v>
       </c>
       <c r="B5" t="n">
-        <v>909</v>
+        <v>1105</v>
       </c>
       <c r="C5" t="n">
-        <v>909</v>
+        <v>1105</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4.412607550621033</v>
+        <v>2.750695943832397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="B6" t="n">
-        <v>910</v>
+        <v>1106</v>
       </c>
       <c r="C6" t="n">
-        <v>912</v>
+        <v>1107</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3.503800868988037</v>
+        <v>3.889128923416138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B7" t="n">
-        <v>913</v>
+        <v>1108</v>
       </c>
       <c r="C7" t="n">
-        <v>913</v>
+        <v>1110</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4.731461524963379</v>
+        <v>2.619842847188314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B8" t="n">
-        <v>914</v>
+        <v>1111</v>
       </c>
       <c r="C8" t="n">
-        <v>914</v>
+        <v>1111</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3.542227983474731</v>
+        <v>5.053542613983154</v>
       </c>
     </row>
     <row r="9">
@@ -2654,103 +2682,103 @@
         <v>786</v>
       </c>
       <c r="B9" t="n">
-        <v>915</v>
+        <v>1112</v>
       </c>
       <c r="C9" t="n">
-        <v>915</v>
+        <v>1113</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3.049494981765747</v>
+        <v>3.375550508499146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>426</v>
+        <v>754</v>
       </c>
       <c r="B10" t="n">
-        <v>916</v>
+        <v>1114</v>
       </c>
       <c r="C10" t="n">
-        <v>916</v>
+        <v>1122</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>2.756060123443604</v>
+        <v>2.703804307513767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>458</v>
+        <v>786</v>
       </c>
       <c r="B11" t="n">
-        <v>917</v>
+        <v>1123</v>
       </c>
       <c r="C11" t="n">
-        <v>917</v>
+        <v>1124</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>3.056228160858154</v>
+        <v>4.663923501968384</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1082</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>918</v>
+        <v>1125</v>
       </c>
       <c r="C12" t="n">
-        <v>918</v>
+        <v>1125</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>4.532186031341553</v>
+        <v>5.812551915645599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1114</v>
+        <v>754</v>
       </c>
       <c r="B13" t="n">
-        <v>919</v>
+        <v>1126</v>
       </c>
       <c r="C13" t="n">
-        <v>919</v>
+        <v>1127</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>5.46726655960083</v>
+        <v>2.627874374389648</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A14" t="n">
+        <v>786</v>
       </c>
       <c r="B14" t="n">
-        <v>920</v>
+        <v>1128</v>
       </c>
       <c r="C14" t="n">
-        <v>920</v>
+        <v>1129</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>4.937575340270996</v>
+        <v>3.675866723060608</v>
       </c>
     </row>
     <row r="15">
@@ -2758,137 +2786,135 @@
         <v>754</v>
       </c>
       <c r="B15" t="n">
-        <v>921</v>
+        <v>1130</v>
       </c>
       <c r="C15" t="n">
-        <v>922</v>
+        <v>1130</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2.797642350196838</v>
+        <v>2.873728036880493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>786</v>
+        <v>1114</v>
       </c>
       <c r="B16" t="n">
-        <v>923</v>
+        <v>1131</v>
       </c>
       <c r="C16" t="n">
-        <v>925</v>
+        <v>1131</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>4.570354700088501</v>
+        <v>5.463923931121826</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>754</v>
+        <v>98</v>
       </c>
       <c r="B17" t="n">
-        <v>926</v>
+        <v>1132</v>
       </c>
       <c r="C17" t="n">
-        <v>926</v>
+        <v>1132</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>3.799076318740845</v>
+        <v>2.530469655990601</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>786</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
-        <v>927</v>
+        <v>1133</v>
       </c>
       <c r="C18" t="n">
-        <v>927</v>
+        <v>1133</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>3.234606504440308</v>
+        <v>2.934986114501953</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>458</v>
+        <v>1114</v>
       </c>
       <c r="B19" t="n">
-        <v>928</v>
+        <v>1134</v>
       </c>
       <c r="C19" t="n">
-        <v>928</v>
+        <v>1134</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3.789329528808594</v>
+        <v>4.56052827835083</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A20" t="n">
+        <v>130</v>
       </c>
       <c r="B20" t="n">
-        <v>929</v>
+        <v>1135</v>
       </c>
       <c r="C20" t="n">
-        <v>929</v>
+        <v>1135</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>3.836115837097168</v>
+        <v>4.595083236694336</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>754</v>
+        <v>98</v>
       </c>
       <c r="B21" t="n">
-        <v>930</v>
+        <v>1136</v>
       </c>
       <c r="C21" t="n">
-        <v>932</v>
+        <v>1136</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>3.203104575475057</v>
+        <v>5.392159938812256</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="B22" t="n">
-        <v>933</v>
+        <v>1137</v>
       </c>
       <c r="C22" t="n">
-        <v>933</v>
+        <v>1138</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>3.598851203918457</v>
+        <v>4.230108499526978</v>
       </c>
     </row>
     <row r="23">
@@ -2896,52 +2922,50 @@
         <v>98</v>
       </c>
       <c r="B23" t="n">
-        <v>934</v>
+        <v>1139</v>
       </c>
       <c r="C23" t="n">
-        <v>940</v>
+        <v>1140</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>3.233500003814697</v>
+        <v>4.490600109100342</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A24" t="n">
+        <v>754</v>
       </c>
       <c r="B24" t="n">
-        <v>941</v>
+        <v>1141</v>
       </c>
       <c r="C24" t="n">
-        <v>941</v>
+        <v>1142</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>3.225418329238892</v>
+        <v>3.171051740646362</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="B25" t="n">
-        <v>942</v>
+        <v>1143</v>
       </c>
       <c r="C25" t="n">
-        <v>946</v>
+        <v>1143</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>3.392504358291626</v>
+        <v>2.671238899230957</v>
       </c>
     </row>
     <row r="26">
@@ -2949,33 +2973,33 @@
         <v>130</v>
       </c>
       <c r="B26" t="n">
-        <v>947</v>
+        <v>1144</v>
       </c>
       <c r="C26" t="n">
-        <v>948</v>
+        <v>1145</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>5.017226219177246</v>
+        <v>4.95881199836731</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>426</v>
+        <v>754</v>
       </c>
       <c r="B27" t="n">
-        <v>949</v>
+        <v>1146</v>
       </c>
       <c r="C27" t="n">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>4.576030731201172</v>
+        <v>2.734969282150268</v>
       </c>
     </row>
     <row r="28">
@@ -2983,52 +3007,52 @@
         <v>130</v>
       </c>
       <c r="B28" t="n">
-        <v>950</v>
+        <v>1151</v>
       </c>
       <c r="C28" t="n">
-        <v>951</v>
+        <v>1151</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>4.528150796890259</v>
+        <v>3.562044620513916</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1114</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B29" t="n">
-        <v>952</v>
+        <v>1152</v>
       </c>
       <c r="C29" t="n">
-        <v>953</v>
+        <v>1153</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>4.023498058319092</v>
+        <v>4.113081067800522</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A30" t="n">
+        <v>426</v>
       </c>
       <c r="B30" t="n">
-        <v>954</v>
+        <v>1154</v>
       </c>
       <c r="C30" t="n">
-        <v>955</v>
+        <v>1156</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>3.844187557697296</v>
+        <v>3.660924752553304</v>
       </c>
     </row>
     <row r="31">
@@ -3036,16 +3060,16 @@
         <v>786</v>
       </c>
       <c r="B31" t="n">
-        <v>956</v>
+        <v>1157</v>
       </c>
       <c r="C31" t="n">
-        <v>956</v>
+        <v>1159</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>4.523719787597656</v>
+        <v>4.476324081420898</v>
       </c>
     </row>
     <row r="32">
@@ -3053,118 +3077,865 @@
         <v>754</v>
       </c>
       <c r="B32" t="n">
-        <v>957</v>
+        <v>1160</v>
       </c>
       <c r="C32" t="n">
-        <v>957</v>
+        <v>1163</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>3.182544231414795</v>
+        <v>2.607899188995361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130</v>
+        <v>786</v>
       </c>
       <c r="B33" t="n">
-        <v>958</v>
+        <v>1164</v>
       </c>
       <c r="C33" t="n">
-        <v>959</v>
+        <v>1165</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>6.485596895217896</v>
+        <v>3.276737451553345</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="B34" t="n">
-        <v>960</v>
+        <v>1166</v>
       </c>
       <c r="C34" t="n">
-        <v>961</v>
+        <v>1166</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>4.677653193473816</v>
+        <v>2.819786787033081</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="B35" t="n">
-        <v>962</v>
+        <v>1167</v>
       </c>
       <c r="C35" t="n">
-        <v>963</v>
+        <v>1167</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>2.723313093185425</v>
+        <v>2.568813800811768</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1114</v>
+        <v>458</v>
       </c>
       <c r="B36" t="n">
-        <v>964</v>
+        <v>1168</v>
       </c>
       <c r="C36" t="n">
-        <v>964</v>
+        <v>1168</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>5.282914161682129</v>
+        <v>4.26960563659668</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B37" t="n">
-        <v>965</v>
+        <v>1169</v>
       </c>
       <c r="C37" t="n">
-        <v>968</v>
+        <v>1169</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>3.571775138378143</v>
+        <v>5.715146064758301</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>458</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1170</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.187367677688599</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>426</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1171</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1173</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.166019996007284</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>458</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1174</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1174</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>16.99478721618652</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.109348297119141</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>98</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1179</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.622386515140533</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
         <v>130</v>
       </c>
-      <c r="B38" t="n">
-        <v>969</v>
-      </c>
-      <c r="C38" t="n">
-        <v>969</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>5.539332389831543</v>
+      <c r="B43" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.364014148712158</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1182</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.630950450897217</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>786</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.716254234313965</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>130</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1184</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.860185861587524</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>98</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.531466960906982</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>130</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1188</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.617632150650024</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>98</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.595052719116211</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>130</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.617074012756348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>98</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1198</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.604545474052429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>130</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1199</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.742457866668701</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>98</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.793296972910563</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>130</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1203</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.929124355316162</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>98</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.627696990966797</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>130</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1207</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1207</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.787229776382446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>98</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1208</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.506999731063843</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>130</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.028410911560059</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.224989652633667</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1211</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.346557140350342</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.57465648651123</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>458</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1213</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.09433650970459</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>426</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1216</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.433335065841675</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>754</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1217</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.274118423461914</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1221</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.259389311075211</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.066803693771362</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>426</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.2933030128479</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1226</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1227</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.724990606307983</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>786</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1228</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.751452922821045</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1229</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.969126224517822</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>458</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.692923069000244</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1232</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.849024683237076</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>458</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.984632015228271</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1235</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.067507326602936</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>130</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1236</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.873433589935303</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>458</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.595146656036377</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.606354758143425</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>426</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1244</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.807478348414103</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>786</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1245</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.780913352966309</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>130</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1246</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6.272430419921875</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1248</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.176141798496246</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3215,108 +3986,104 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>786</v>
+        <v>1082</v>
       </c>
       <c r="B2" t="n">
-        <v>939</v>
+        <v>1171</v>
       </c>
       <c r="C2" t="n">
-        <v>939</v>
+        <v>1182</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>5.724345207214355</v>
+        <v>2.721847593784332</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1114</v>
       </c>
       <c r="B3" t="n">
-        <v>940</v>
+        <v>1183</v>
       </c>
       <c r="C3" t="n">
-        <v>940</v>
+        <v>1183</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>4.341023802757263</v>
+        <v>2.622322797775269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>1082</v>
       </c>
       <c r="B4" t="n">
-        <v>941</v>
+        <v>1184</v>
       </c>
       <c r="C4" t="n">
-        <v>941</v>
+        <v>1196</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>4.878772258758545</v>
+        <v>2.891145467758179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>786</v>
+        <v>1114</v>
       </c>
       <c r="B5" t="n">
-        <v>942</v>
+        <v>1197</v>
       </c>
       <c r="C5" t="n">
-        <v>942</v>
+        <v>1197</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2.74065899848938</v>
+        <v>2.726518630981445</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A6" t="n">
+        <v>1082</v>
       </c>
       <c r="B6" t="n">
-        <v>943</v>
+        <v>1198</v>
       </c>
       <c r="C6" t="n">
-        <v>943</v>
+        <v>1201</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>3.619978606700897</v>
+        <v>2.615173399448395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>458</v>
+        <v>1114</v>
       </c>
       <c r="B7" t="n">
-        <v>944</v>
+        <v>1202</v>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>1202</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3.853615164756775</v>
+        <v>2.754897832870483</v>
       </c>
     </row>
     <row r="8">
@@ -3324,16 +4091,432 @@
         <v>1082</v>
       </c>
       <c r="B8" t="n">
-        <v>946</v>
+        <v>1203</v>
       </c>
       <c r="C8" t="n">
-        <v>946</v>
+        <v>1203</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3.14313793182373</v>
+        <v>2.540847301483154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>458</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1204</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.972177505493164</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.311348875363668</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>786</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.349371433258057</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1217</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.638527691364288</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.307151317596436</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.674225330352783</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>458</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.192389488220215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>754</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1223</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.699983278910319</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.276887208223343</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>458</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1226</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1227</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.351809501647949</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1229</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.823854565620422</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>786</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.074822902679443</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.49932384490967</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>458</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1232</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.422507286071777</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.399439364671707</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1236</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.830848932266235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.596805572509766</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1239</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.452148914337158</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>458</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1240</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.646229267120361</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.750662803649902</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.886943101882935</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>458</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1243</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1243</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.382099151611328</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.228300482034683</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1248</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.744063774744669</v>
       </c>
     </row>
   </sheetData>
@@ -3342,6 +4525,411 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>residue</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mean_distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>458</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1193</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.222881317138672</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.465703964233398</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>458</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1195</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.914629697799683</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.562118887901306</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>786</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1197</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.680222272872925</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>426</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1207</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.700807428359985</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>786</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.891403198242188</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>426</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1211</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.70973801612854</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>130</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.08833122253418</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>786</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1213</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.508159637451172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>754</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1214</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.591737270355225</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>130</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1215</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.738643646240234</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>786</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1217</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17.10439109802246</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>130</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17.94266510009766</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>786</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16.27218818664551</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>130</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17.27469062805176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>786</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1221</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.79923820495605</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16.53117561340332</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>786</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1223</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.45169734954834</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.597640037536621</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>786</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.371079921722412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3384,70 +4972,70 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="B2" t="n">
-        <v>954</v>
+        <v>1199</v>
       </c>
       <c r="C2" t="n">
-        <v>955</v>
+        <v>1199</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3.935000777244568</v>
+        <v>6.029179573059082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1114</v>
+        <v>754</v>
       </c>
       <c r="B3" t="n">
-        <v>956</v>
+        <v>1200</v>
       </c>
       <c r="C3" t="n">
-        <v>956</v>
+        <v>1200</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3.9110426902771</v>
+        <v>4.985082626342773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1082</v>
+        <v>786</v>
       </c>
       <c r="B4" t="n">
-        <v>957</v>
+        <v>1201</v>
       </c>
       <c r="C4" t="n">
-        <v>958</v>
+        <v>1217</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>4.556207656860352</v>
+        <v>14.27553922989789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>786</v>
+        <v>130</v>
       </c>
       <c r="B5" t="n">
-        <v>959</v>
+        <v>1218</v>
       </c>
       <c r="C5" t="n">
-        <v>959</v>
+        <v>1219</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>3.346139430999756</v>
+        <v>5.372162580490112</v>
       </c>
     </row>
   </sheetData>
@@ -3455,13 +5043,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,464 +5089,311 @@
         <v>786</v>
       </c>
       <c r="B2" t="n">
-        <v>963</v>
+        <v>1218</v>
       </c>
       <c r="C2" t="n">
-        <v>963</v>
+        <v>1218</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5.167057991027832</v>
+        <v>3.987396001815796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130</v>
+        <v>754</v>
       </c>
       <c r="B3" t="n">
-        <v>964</v>
+        <v>1219</v>
       </c>
       <c r="C3" t="n">
-        <v>965</v>
+        <v>1219</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>4.462002277374268</v>
+        <v>3.809607267379761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1082</v>
+        <v>786</v>
       </c>
       <c r="B4" t="n">
-        <v>966</v>
+        <v>1220</v>
       </c>
       <c r="C4" t="n">
-        <v>966</v>
+        <v>1220</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4.299968719482422</v>
+        <v>8.473804473876953</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>458</v>
+        <v>1082</v>
       </c>
       <c r="B5" t="n">
-        <v>967</v>
+        <v>1221</v>
       </c>
       <c r="C5" t="n">
-        <v>968</v>
+        <v>1221</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3.73598837852478</v>
+        <v>2.611276626586914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>426</v>
+        <v>130</v>
       </c>
       <c r="B6" t="n">
-        <v>969</v>
+        <v>1222</v>
       </c>
       <c r="C6" t="n">
-        <v>970</v>
+        <v>1222</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>3.336111664772034</v>
+        <v>6.235934257507324</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1114</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>971</v>
+        <v>1223</v>
       </c>
       <c r="C7" t="n">
-        <v>971</v>
+        <v>1227</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>2.946423530578613</v>
+        <v>4.02363144159317</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>754</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1229</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.649108409881592</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>972</v>
-      </c>
-      <c r="C8" t="n">
-        <v>973</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.839919149875641</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B9" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.829772680997849</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>786</v>
       </c>
-      <c r="B9" t="n">
-        <v>974</v>
-      </c>
-      <c r="C9" t="n">
-        <v>975</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.498443841934204</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
       <c r="B10" t="n">
-        <v>976</v>
+        <v>1232</v>
       </c>
       <c r="C10" t="n">
-        <v>976</v>
+        <v>1232</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4.93914270401001</v>
+        <v>2.507475852966309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="B11" t="n">
-        <v>977</v>
+        <v>1233</v>
       </c>
       <c r="C11" t="n">
-        <v>978</v>
+        <v>1234</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>2.636904120445251</v>
+        <v>2.644590735435486</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>786</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>979</v>
+        <v>1235</v>
       </c>
       <c r="C12" t="n">
-        <v>979</v>
+        <v>1238</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>3.208850145339966</v>
+        <v>4.213535964488983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B13" t="n">
-        <v>980</v>
+        <v>1239</v>
       </c>
       <c r="C13" t="n">
-        <v>980</v>
+        <v>1240</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>3.489448308944702</v>
+        <v>3.920765161514282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="B14" t="n">
-        <v>981</v>
+        <v>1241</v>
       </c>
       <c r="C14" t="n">
-        <v>981</v>
+        <v>1241</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2.960061311721802</v>
+        <v>2.626747131347656</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="A15" t="n">
+        <v>130</v>
       </c>
       <c r="B15" t="n">
-        <v>982</v>
+        <v>1242</v>
       </c>
       <c r="C15" t="n">
-        <v>982</v>
+        <v>1243</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>4.18229067325592</v>
+        <v>3.664292693138123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1114</v>
+        <v>1082</v>
       </c>
       <c r="B16" t="n">
-        <v>983</v>
+        <v>1244</v>
       </c>
       <c r="C16" t="n">
-        <v>983</v>
+        <v>1244</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>5.484349727630615</v>
+        <v>4.667032241821289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="B17" t="n">
-        <v>984</v>
+        <v>1245</v>
       </c>
       <c r="C17" t="n">
-        <v>984</v>
+        <v>1246</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>5.31838321685791</v>
+        <v>2.625817775726318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1114</v>
+        <v>458</v>
       </c>
       <c r="B18" t="n">
-        <v>985</v>
+        <v>1247</v>
       </c>
       <c r="C18" t="n">
-        <v>986</v>
+        <v>1247</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>4.781005263328552</v>
+        <v>2.774203538894653</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>754</v>
+        <v>426</v>
       </c>
       <c r="B19" t="n">
-        <v>987</v>
+        <v>1248</v>
       </c>
       <c r="C19" t="n">
-        <v>987</v>
+        <v>1248</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2.678432703018188</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>786</v>
-      </c>
-      <c r="B20" t="n">
-        <v>988</v>
-      </c>
-      <c r="C20" t="n">
-        <v>988</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.036776065826416</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B21" t="n">
-        <v>989</v>
-      </c>
-      <c r="C21" t="n">
-        <v>991</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.625493288040161</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>426</v>
-      </c>
-      <c r="B22" t="n">
-        <v>992</v>
-      </c>
-      <c r="C22" t="n">
-        <v>992</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.80041241645813</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>458</v>
-      </c>
-      <c r="B23" t="n">
-        <v>993</v>
-      </c>
-      <c r="C23" t="n">
-        <v>993</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3.828397035598755</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>130</v>
-      </c>
-      <c r="B24" t="n">
-        <v>994</v>
-      </c>
-      <c r="C24" t="n">
-        <v>995</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.802089333534241</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B25" t="n">
-        <v>996</v>
-      </c>
-      <c r="C25" t="n">
-        <v>996</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.245376586914062</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>130</v>
-      </c>
-      <c r="B26" t="n">
-        <v>997</v>
-      </c>
-      <c r="C26" t="n">
-        <v>997</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.703291416168213</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>786</v>
-      </c>
-      <c r="B27" t="n">
-        <v>998</v>
-      </c>
-      <c r="C27" t="n">
-        <v>998</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.096027851104736</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B28" t="n">
-        <v>999</v>
-      </c>
-      <c r="C28" t="n">
-        <v>999</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.941276550292969</v>
+        <v>2.589515924453735</v>
       </c>
     </row>
   </sheetData>

--- a/results_G2/residue_clusters.xlsx
+++ b/results_G2/residue_clusters.xlsx
@@ -7,24 +7,24 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2400" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2399" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2398" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2397" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2276" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2520" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2223" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2391" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2333" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2247" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2372" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2231" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2381" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2343" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2334" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2230" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2515" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2280" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2400_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2399_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2398_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2397_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2276_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2520_1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2223_1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2391_1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2333_1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2247_1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2372_1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2231_1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2381_1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2343_1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2334_1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2230_1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2515_1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2280_1" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
